--- a/va_ind.xlsx
+++ b/va_ind.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="480" windowWidth="25120" windowHeight="14080" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
   <si>
     <t>Agriculture, forestry, fishing, and hunting</t>
   </si>
@@ -60,10 +60,7 @@
     <t>Professional, scientific, and technical services</t>
   </si>
   <si>
-    <t>Management of companies and enterprises</t>
-  </si>
-  <si>
-    <t>Administrative and waste management services</t>
+    <t>Management, Administrative and waste services</t>
   </si>
   <si>
     <t>Educational services</t>
@@ -642,206 +639,206 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BL22"/>
+  <dimension ref="A1:BL21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:BL1"/>
+    <sheetView tabSelected="1" topLeftCell="BD1" workbookViewId="0">
+      <selection activeCell="BN5" sqref="BN5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:64">
       <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
         <v>21</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>22</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>23</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>24</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>25</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>26</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>27</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>28</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>29</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>30</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>31</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>32</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>33</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>34</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>35</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>36</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>37</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>38</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>39</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>40</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>41</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>42</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>43</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>44</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>45</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>46</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>47</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>48</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>49</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>50</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>51</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>52</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>53</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>54</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>55</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>56</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>57</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>58</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>59</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>60</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>61</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>62</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>63</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>64</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>65</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>66</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>67</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>68</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>69</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>70</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>71</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>72</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" t="s">
         <v>73</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BC1" t="s">
         <v>74</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BD1" t="s">
         <v>75</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BE1" t="s">
         <v>76</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BF1" t="s">
         <v>77</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BG1" t="s">
         <v>78</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BH1" t="s">
         <v>79</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BI1" t="s">
         <v>80</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BJ1" t="s">
         <v>81</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BK1" t="s">
         <v>82</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BL1" t="s">
         <v>83</v>
-      </c>
-      <c r="BL1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:64">
@@ -3371,193 +3368,193 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6839.6551724137935</v>
+        <v>5320.8661417322837</v>
       </c>
       <c r="C15">
-        <v>7145.6834532374105</v>
+        <v>5571.8623481781369</v>
       </c>
       <c r="D15">
-        <v>7714.7826086956529</v>
+        <v>6010.7317073170734</v>
       </c>
       <c r="E15">
-        <v>8225.4428341384864</v>
+        <v>6406.6726780883682</v>
       </c>
       <c r="F15">
-        <v>8431.0344827586214</v>
+        <v>6545.3759723422645</v>
       </c>
       <c r="G15">
-        <v>8668.1749622926091</v>
+        <v>6755.1695616211746</v>
       </c>
       <c r="H15">
-        <v>8889.0625</v>
+        <v>6937.0277078085646</v>
       </c>
       <c r="I15">
-        <v>9581.1836115326241</v>
+        <v>7332.7987169206099</v>
       </c>
       <c r="J15">
-        <v>9704.8458149779744</v>
+        <v>7367.6248108925874</v>
       </c>
       <c r="K15">
-        <v>10135.568513119533</v>
+        <v>7616.2876008804114</v>
       </c>
       <c r="L15">
-        <v>10479.326186830014</v>
+        <v>7804.4609665427515</v>
       </c>
       <c r="M15">
-        <v>11225.663716814159</v>
+        <v>8168.8857743517874</v>
       </c>
       <c r="N15">
-        <v>11292.329956584659</v>
+        <v>8136.2416107382551</v>
       </c>
       <c r="O15">
-        <v>11667.153284671533</v>
+        <v>8292.2673656618608</v>
       </c>
       <c r="P15">
-        <v>12341.843971631206</v>
+        <v>8577.2104607721049</v>
       </c>
       <c r="Q15">
-        <v>12715.686274509802</v>
+        <v>8763.1103074141047</v>
       </c>
       <c r="R15">
-        <v>13426.027397260274</v>
+        <v>9059.0596330275239</v>
       </c>
       <c r="S15">
-        <v>13951.37976346912</v>
+        <v>9288.7209929843502</v>
       </c>
       <c r="T15">
-        <v>14459.057071960297</v>
+        <v>9514.2428785607208</v>
       </c>
       <c r="U15">
-        <v>14849.33171324423</v>
+        <v>9628.4622731614145</v>
       </c>
       <c r="V15">
-        <v>15823.87706855792</v>
+        <v>10067.184643510056</v>
       </c>
       <c r="W15">
-        <v>16318.077803203661</v>
+        <v>10287.494628276751</v>
       </c>
       <c r="X15">
-        <v>16966.473988439309</v>
+        <v>10646.16037335596</v>
       </c>
       <c r="Y15">
-        <v>18483.568075117371</v>
+        <v>11521.331058020478</v>
       </c>
       <c r="Z15">
-        <v>19605.022831050228</v>
+        <v>12091.572123176662</v>
       </c>
       <c r="AA15">
-        <v>20480.561555075594</v>
+        <v>12523.186237845923</v>
       </c>
       <c r="AB15">
-        <v>21769.799366420277</v>
+        <v>13300.215982721384</v>
       </c>
       <c r="AC15">
-        <v>24776.444929116686</v>
+        <v>15004.454342984409</v>
       </c>
       <c r="AD15">
-        <v>26906.708595387841</v>
+        <v>16213.431786216595</v>
       </c>
       <c r="AE15">
-        <v>29022.066198595789</v>
+        <v>17471.984179301253</v>
       </c>
       <c r="AF15">
-        <v>32225.269343780608</v>
+        <v>18759.191176470587</v>
       </c>
       <c r="AG15">
-        <v>34387.988560533842</v>
+        <v>19850.157277666571</v>
       </c>
       <c r="AH15">
-        <v>36848.00741427247</v>
+        <v>21251.719394773041</v>
       </c>
       <c r="AI15">
-        <v>40776.777677767772</v>
+        <v>23299.629433562732</v>
       </c>
       <c r="AJ15">
-        <v>41345.008756567426</v>
+        <v>24429.54964445615</v>
       </c>
       <c r="AK15">
-        <v>45827.4678111588</v>
+        <v>26292.188282423635</v>
       </c>
       <c r="AL15">
-        <v>51285.355648535566</v>
+        <v>27378.577817531306</v>
       </c>
       <c r="AM15">
-        <v>55533.551554828147</v>
+        <v>28588.665830196573</v>
       </c>
       <c r="AN15">
-        <v>59530.923694779121</v>
+        <v>29712.851800826607</v>
       </c>
       <c r="AO15">
-        <v>60297.805642633226</v>
+        <v>29819.824753559693</v>
       </c>
       <c r="AP15">
-        <v>55904.580152671755</v>
+        <v>29291.875107814387</v>
       </c>
       <c r="AQ15">
-        <v>58644.478063540089</v>
+        <v>30255.128622598502</v>
       </c>
       <c r="AR15">
-        <v>60217.554388597149</v>
+        <v>31449.33645589383</v>
       </c>
       <c r="AS15">
-        <v>59382.481751824816</v>
+        <v>32118.622650450165</v>
       </c>
       <c r="AT15">
-        <v>59939.136588818117</v>
+        <v>33251.516990291268</v>
       </c>
       <c r="AU15">
-        <v>63133.971291866023</v>
+        <v>33244.563682575543</v>
       </c>
       <c r="AV15">
-        <v>63511.198945981552</v>
+        <v>32928.459937565036</v>
       </c>
       <c r="AW15">
-        <v>66507.414571244357</v>
+        <v>33701.052373959858</v>
       </c>
       <c r="AX15">
-        <v>70399.114484503487</v>
+        <v>35102.078736499825</v>
       </c>
       <c r="AY15">
-        <v>75293.689320388352</v>
+        <v>36579.681921454074</v>
       </c>
       <c r="AZ15">
-        <v>81213.655091230132</v>
+        <v>41224.955673758865</v>
       </c>
       <c r="BA15">
-        <v>85453.548759376805</v>
+        <v>42512.33656684943</v>
       </c>
       <c r="BB15">
-        <v>98495.106505469201</v>
+        <v>46263.516953467064</v>
       </c>
       <c r="BC15">
-        <v>102136.33703920421</v>
+        <v>49556.306068601589</v>
       </c>
       <c r="BD15">
-        <v>104834.80305702529</v>
+        <v>51461.943102522811</v>
       </c>
       <c r="BE15">
-        <v>113061.69212690952</v>
+        <v>55664.830416936704</v>
       </c>
       <c r="BF15">
-        <v>118109.81987216735</v>
+        <v>56386.56341565508</v>
       </c>
       <c r="BG15">
-        <v>123543.55203619909</v>
+        <v>59737.998784687057</v>
       </c>
       <c r="BH15">
-        <v>130009.42350332593</v>
+        <v>61451.209837366121</v>
       </c>
       <c r="BI15">
-        <v>138567.20430107525</v>
+        <v>65513.87401421478</v>
       </c>
       <c r="BJ15">
-        <v>138461.33613887429</v>
+        <v>68276.017194841537</v>
       </c>
       <c r="BK15">
-        <v>134143.31896551725</v>
+        <v>70710.275249479106</v>
       </c>
       <c r="BL15">
-        <v>142309.22827846734</v>
+        <v>73343.189581554223</v>
       </c>
     </row>
     <row r="16" spans="1:64">
@@ -3565,193 +3562,193 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3300.45871559633</v>
+        <v>2302.3809523809523</v>
       </c>
       <c r="C16">
-        <v>3546.2962962962961</v>
+        <v>2373.2718894009217</v>
       </c>
       <c r="D16">
-        <v>3833.3333333333335</v>
+        <v>2448.4304932735427</v>
       </c>
       <c r="E16">
-        <v>4092.2131147540986</v>
+        <v>2575.5555555555552</v>
       </c>
       <c r="F16">
-        <v>4227.3603082851632</v>
+        <v>2625.8205689277897</v>
       </c>
       <c r="G16">
-        <v>4432.2344322344325</v>
+        <v>2699.788583509514</v>
       </c>
       <c r="H16">
-        <v>4669.6914700544467</v>
+        <v>2804.0816326530612</v>
       </c>
       <c r="I16">
-        <v>4812.925170068027</v>
+        <v>2868.7258687258686</v>
       </c>
       <c r="J16">
-        <v>4884.5553822152888</v>
+        <v>3071.9557195571956</v>
       </c>
       <c r="K16">
-        <v>5063.5155096011813</v>
+        <v>3189.2361111111113</v>
       </c>
       <c r="L16">
-        <v>5280.346820809249</v>
+        <v>3279.3388429752067</v>
       </c>
       <c r="M16">
-        <v>5401.869158878505</v>
+        <v>3500.8103727714752</v>
       </c>
       <c r="N16">
-        <v>5406.7584480600754</v>
+        <v>3669.7674418604652</v>
       </c>
       <c r="O16">
-        <v>5543.4007134363856</v>
+        <v>3838.1924198250726</v>
       </c>
       <c r="P16">
-        <v>5631.5205327413987</v>
+        <v>4042.3497267759567</v>
       </c>
       <c r="Q16">
-        <v>5776.7195767195772</v>
+        <v>4223.5294117647063</v>
       </c>
       <c r="R16">
-        <v>5915.1873767258385</v>
+        <v>4540.506329113924</v>
       </c>
       <c r="S16">
-        <v>6039.3772893772893</v>
+        <v>4769.7756788665884</v>
       </c>
       <c r="T16">
-        <v>6179.0794979079501</v>
+        <v>5095.6618464961066</v>
       </c>
       <c r="U16">
-        <v>6247.8363493312354</v>
+        <v>5330.4994686503724</v>
       </c>
       <c r="V16">
-        <v>6438.1520119225033</v>
+        <v>5735.7723577235765</v>
       </c>
       <c r="W16">
-        <v>6660.0137646249141</v>
+        <v>6471.4566929133862</v>
       </c>
       <c r="X16">
-        <v>6981.9034852546911</v>
+        <v>7095.8254269449717</v>
       </c>
       <c r="Y16">
-        <v>7545.5764075067027</v>
+        <v>7815.3988868274582</v>
       </c>
       <c r="Z16">
-        <v>7957.286432160804</v>
+        <v>8665.7608695652161</v>
       </c>
       <c r="AA16">
-        <v>8307.7803203661333</v>
+        <v>9219.0812720848062</v>
       </c>
       <c r="AB16">
-        <v>8919.7160021845993</v>
+        <v>9470.8904109589057</v>
       </c>
       <c r="AC16">
-        <v>9961.7332583005063</v>
+        <v>9998.3402489626551</v>
       </c>
       <c r="AD16">
-        <v>10815.873015873016</v>
+        <v>10332.506203473946</v>
       </c>
       <c r="AE16">
-        <v>11818.851251840942</v>
+        <v>10808.652246256239</v>
       </c>
       <c r="AF16">
-        <v>12629.514043691484</v>
+        <v>11351.71862509992</v>
       </c>
       <c r="AG16">
-        <v>13620.506535947712</v>
+        <v>12070</v>
       </c>
       <c r="AH16">
-        <v>14667.840375586855</v>
+        <v>13404.255319148935</v>
       </c>
       <c r="AI16">
-        <v>16019.12260967379</v>
+        <v>14242.066420664207</v>
       </c>
       <c r="AJ16">
-        <v>17153.672316384182</v>
+        <v>14749.116607773851</v>
       </c>
       <c r="AK16">
-        <v>18247.437256981266</v>
+        <v>16305.270362765228</v>
       </c>
       <c r="AL16">
-        <v>18660.665242599938</v>
+        <v>17169.712793733681</v>
       </c>
       <c r="AM16">
-        <v>19339.606741573032</v>
+        <v>18107.7806122449</v>
       </c>
       <c r="AN16">
-        <v>20035.1929092805</v>
+        <v>18877.423389618511</v>
       </c>
       <c r="AO16">
-        <v>20564.731080437887</v>
+        <v>19902.089552238805</v>
       </c>
       <c r="AP16">
-        <v>21522.175172721196</v>
+        <v>20530.871321407965</v>
       </c>
       <c r="AQ16">
-        <v>22468.672199170127</v>
+        <v>21676.190476190477</v>
       </c>
       <c r="AR16">
-        <v>23888.604100946373</v>
+        <v>22652.556349642662</v>
       </c>
       <c r="AS16">
-        <v>24589.598871195325</v>
+        <v>24320.663811563169</v>
       </c>
       <c r="AT16">
-        <v>25970.264529832017</v>
+        <v>24975.995914198164</v>
       </c>
       <c r="AU16">
-        <v>25462.359850507208</v>
+        <v>25638.076351016363</v>
       </c>
       <c r="AV16">
-        <v>25404.213938411667</v>
+        <v>26741.329479768789</v>
       </c>
       <c r="AW16">
-        <v>26016.009666213562</v>
+        <v>27689.557855127001</v>
       </c>
       <c r="AX16">
-        <v>27164.011379800853</v>
+        <v>28871.652816251153</v>
       </c>
       <c r="AY16">
-        <v>28179.328505595786</v>
+        <v>29902.057245080501</v>
       </c>
       <c r="AZ16">
-        <v>31949.761092150169</v>
+        <v>31587.445887445887</v>
       </c>
       <c r="BA16">
-        <v>32911.36627531932</v>
+        <v>33230.865746549563</v>
       </c>
       <c r="BB16">
-        <v>35040.573973280552</v>
+        <v>34645.682001614201</v>
       </c>
       <c r="BC16">
-        <v>37985.449394797841</v>
+        <v>34550.837553564474</v>
       </c>
       <c r="BD16">
-        <v>39538.219070133964</v>
+        <v>36721.768202080231</v>
       </c>
       <c r="BE16">
-        <v>42736.103758602432</v>
+        <v>38651.603498542274</v>
       </c>
       <c r="BF16">
-        <v>42828.717294192727</v>
+        <v>40872.445384073289</v>
       </c>
       <c r="BG16">
-        <v>45821.366888724398</v>
+        <v>41920.823160097665</v>
       </c>
       <c r="BH16">
-        <v>46514.130434782608</v>
+        <v>43946.902654867255</v>
       </c>
       <c r="BI16">
-        <v>49358.934728331944</v>
+        <v>45731.674958540629</v>
       </c>
       <c r="BJ16">
-        <v>51808.195507282151</v>
+        <v>47632.784769280413</v>
       </c>
       <c r="BK16">
-        <v>54500.481894533943</v>
+        <v>49821.996185632546</v>
       </c>
       <c r="BL16">
-        <v>56337.990685296078</v>
+        <v>50794.456555590157</v>
       </c>
     </row>
     <row r="17" spans="1:64">
@@ -3759,193 +3756,193 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2302.3809523809523</v>
+        <v>4062.1963070942666</v>
       </c>
       <c r="C17">
-        <v>2373.2718894009217</v>
+        <v>4110.0746268656712</v>
       </c>
       <c r="D17">
-        <v>2448.4304932735427</v>
+        <v>4196.6927763272415</v>
       </c>
       <c r="E17">
-        <v>2575.5555555555552</v>
+        <v>4388.8888888888896</v>
       </c>
       <c r="F17">
-        <v>2625.8205689277897</v>
+        <v>4605.4901960784309</v>
       </c>
       <c r="G17">
-        <v>2699.788583509514</v>
+        <v>4818.1143281366003</v>
       </c>
       <c r="H17">
-        <v>2804.0816326530612</v>
+        <v>4702.3223082336381</v>
       </c>
       <c r="I17">
-        <v>2868.7258687258686</v>
+        <v>5264.3142476697731</v>
       </c>
       <c r="J17">
-        <v>3071.9557195571956</v>
+        <v>5228.5535378835311</v>
       </c>
       <c r="K17">
-        <v>3189.2361111111113</v>
+        <v>5498.5092426952888</v>
       </c>
       <c r="L17">
-        <v>3279.3388429752067</v>
+        <v>5725.1693002257334</v>
       </c>
       <c r="M17">
-        <v>3500.8103727714752</v>
+        <v>6038.6058981233246</v>
       </c>
       <c r="N17">
-        <v>3669.7674418604652</v>
+        <v>6104.8012390294271</v>
       </c>
       <c r="O17">
-        <v>3838.1924198250726</v>
+        <v>6287.0693959061409</v>
       </c>
       <c r="P17">
-        <v>4042.3497267759567</v>
+        <v>6619.6437168993743</v>
       </c>
       <c r="Q17">
-        <v>4223.5294117647063</v>
+        <v>6786.2419205909518</v>
       </c>
       <c r="R17">
-        <v>4540.506329113924</v>
+        <v>7164.0281442392261</v>
       </c>
       <c r="S17">
-        <v>4769.7756788665884</v>
+        <v>7342.6427678199243</v>
       </c>
       <c r="T17">
-        <v>5095.6618464961066</v>
+        <v>7633.7321497491312</v>
       </c>
       <c r="U17">
-        <v>5330.4994686503724</v>
+        <v>8148.9361702127653</v>
       </c>
       <c r="V17">
-        <v>5735.7723577235765</v>
+        <v>8559.4758064516118</v>
       </c>
       <c r="W17">
-        <v>6471.4566929133862</v>
+        <v>9108.5392555520793</v>
       </c>
       <c r="X17">
-        <v>7095.8254269449717</v>
+        <v>9849.520383693045</v>
       </c>
       <c r="Y17">
-        <v>7815.3988868274582</v>
+        <v>10123.504867872045</v>
       </c>
       <c r="Z17">
-        <v>8665.7608695652161</v>
+        <v>10351.050366995696</v>
       </c>
       <c r="AA17">
-        <v>9219.0812720848062</v>
+        <v>10843.234323432343</v>
       </c>
       <c r="AB17">
-        <v>9470.8904109589057</v>
+        <v>11632.526105309931</v>
       </c>
       <c r="AC17">
-        <v>9998.3402489626551</v>
+        <v>12726.458333333334</v>
       </c>
       <c r="AD17">
-        <v>10332.506203473946</v>
+        <v>13878.80585211546</v>
       </c>
       <c r="AE17">
-        <v>10808.652246256239</v>
+        <v>14935.077154685736</v>
       </c>
       <c r="AF17">
-        <v>11351.71862509992</v>
+        <v>15905.627094725702</v>
       </c>
       <c r="AG17">
-        <v>12070</v>
+        <v>17165.773610180844</v>
       </c>
       <c r="AH17">
-        <v>13404.255319148935</v>
+        <v>18436.213991769549</v>
       </c>
       <c r="AI17">
-        <v>14242.066420664207</v>
+        <v>20092.344713490751</v>
       </c>
       <c r="AJ17">
-        <v>14749.116607773851</v>
+        <v>21473.074696004634</v>
       </c>
       <c r="AK17">
-        <v>16305.270362765228</v>
+        <v>23181.576740285156</v>
       </c>
       <c r="AL17">
-        <v>17169.712793733681</v>
+        <v>24506.710044733631</v>
       </c>
       <c r="AM17">
-        <v>18107.7806122449</v>
+        <v>25713.912816496995</v>
       </c>
       <c r="AN17">
-        <v>18877.423389618511</v>
+        <v>26854.895104895102</v>
       </c>
       <c r="AO17">
-        <v>19902.089552238805</v>
+        <v>29101.214574898786</v>
       </c>
       <c r="AP17">
-        <v>20530.871321407965</v>
+        <v>30286.10478359909</v>
       </c>
       <c r="AQ17">
-        <v>21676.190476190477</v>
+        <v>32185.412626589099</v>
       </c>
       <c r="AR17">
-        <v>22652.556349642662</v>
+        <v>34369.774590163935</v>
       </c>
       <c r="AS17">
-        <v>24320.663811563169</v>
+        <v>35971.358748778104</v>
       </c>
       <c r="AT17">
-        <v>24975.995914198164</v>
+        <v>37915.063350539654</v>
       </c>
       <c r="AU17">
-        <v>25638.076351016363</v>
+        <v>38508.658989935626</v>
       </c>
       <c r="AV17">
-        <v>26741.329479768789</v>
+        <v>39314.854111405839</v>
       </c>
       <c r="AW17">
-        <v>27689.557855127001</v>
+        <v>40051.756803306926</v>
       </c>
       <c r="AX17">
-        <v>28871.652816251153</v>
+        <v>40651.990908325613</v>
       </c>
       <c r="AY17">
-        <v>29902.057245080501</v>
+        <v>41562.402174808471</v>
       </c>
       <c r="AZ17">
-        <v>31587.445887445887</v>
+        <v>42318.272851077469</v>
       </c>
       <c r="BA17">
-        <v>33230.865746549563</v>
+        <v>43913.432835820902</v>
       </c>
       <c r="BB17">
-        <v>34645.682001614201</v>
+        <v>45570.571032784363</v>
       </c>
       <c r="BC17">
-        <v>34550.837553564474</v>
+        <v>48383.44160749358</v>
       </c>
       <c r="BD17">
-        <v>36721.768202080231</v>
+        <v>50500.146177459435</v>
       </c>
       <c r="BE17">
-        <v>38651.603498542274</v>
+        <v>52741.281138790036</v>
       </c>
       <c r="BF17">
-        <v>40872.445384073289</v>
+        <v>55108.662295996655</v>
       </c>
       <c r="BG17">
-        <v>41920.823160097665</v>
+        <v>56825.366518922609</v>
       </c>
       <c r="BH17">
-        <v>43946.902654867255</v>
+        <v>58765.915119363395</v>
       </c>
       <c r="BI17">
-        <v>45731.674958540629</v>
+        <v>60491.013335051211</v>
       </c>
       <c r="BJ17">
-        <v>47632.784769280413</v>
+        <v>63085.005015045135</v>
       </c>
       <c r="BK17">
-        <v>49821.996185632546</v>
+        <v>64805.95362568424</v>
       </c>
       <c r="BL17">
-        <v>50794.456555590157</v>
+        <v>67085.218337970247</v>
       </c>
     </row>
     <row r="18" spans="1:64">
@@ -3953,193 +3950,193 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4062.1963070942666</v>
+        <v>4505.4945054945056</v>
       </c>
       <c r="C18">
-        <v>4110.0746268656712</v>
+        <v>4652.6610644257707</v>
       </c>
       <c r="D18">
-        <v>4196.6927763272415</v>
+        <v>4793.7853107344636</v>
       </c>
       <c r="E18">
-        <v>4388.8888888888896</v>
+        <v>5223.7960339943347</v>
       </c>
       <c r="F18">
-        <v>4605.4901960784309</v>
+        <v>5598.8538681948421</v>
       </c>
       <c r="G18">
-        <v>4818.1143281366003</v>
+        <v>5949.1525423728817</v>
       </c>
       <c r="H18">
-        <v>4702.3223082336381</v>
+        <v>6136.7521367521367</v>
       </c>
       <c r="I18">
-        <v>5264.3142476697731</v>
+        <v>6356.3535911602203</v>
       </c>
       <c r="J18">
-        <v>5228.5535378835311</v>
+        <v>6615.5913978494618</v>
       </c>
       <c r="K18">
-        <v>5498.5092426952888</v>
+        <v>6909.090909090909</v>
       </c>
       <c r="L18">
-        <v>5725.1693002257334</v>
+        <v>7273.2095490716183</v>
       </c>
       <c r="M18">
-        <v>6038.6058981233246</v>
+        <v>7793.367346938775</v>
       </c>
       <c r="N18">
-        <v>6104.8012390294271</v>
+        <v>8031.476997578693</v>
       </c>
       <c r="O18">
-        <v>6287.0693959061409</v>
+        <v>8311.3207547169804</v>
       </c>
       <c r="P18">
-        <v>6619.6437168993743</v>
+        <v>8394.5578231292529</v>
       </c>
       <c r="Q18">
-        <v>6786.2419205909518</v>
+        <v>8655.0218340611355</v>
       </c>
       <c r="R18">
-        <v>7164.0281442392261</v>
+        <v>9095.3389830508477</v>
       </c>
       <c r="S18">
-        <v>7342.6427678199243</v>
+        <v>9387.9668049792526</v>
       </c>
       <c r="T18">
-        <v>7633.7321497491312</v>
+        <v>9647.1774193548372</v>
       </c>
       <c r="U18">
-        <v>8148.9361702127653</v>
+        <v>9638.9961389961391</v>
       </c>
       <c r="V18">
-        <v>8559.4758064516118</v>
+        <v>10226.415094339623</v>
       </c>
       <c r="W18">
-        <v>9108.5392555520793</v>
+        <v>10245.901639344263</v>
       </c>
       <c r="X18">
-        <v>9849.520383693045</v>
+        <v>10850.799289520426</v>
       </c>
       <c r="Y18">
-        <v>10123.504867872045</v>
+        <v>11195.876288659792</v>
       </c>
       <c r="Z18">
-        <v>10351.050366995696</v>
+        <v>11063.694267515924</v>
       </c>
       <c r="AA18">
-        <v>10843.234323432343</v>
+        <v>11810.930576070899</v>
       </c>
       <c r="AB18">
-        <v>11632.526105309931</v>
+        <v>12387.323943661971</v>
       </c>
       <c r="AC18">
-        <v>12726.458333333334</v>
+        <v>13326.923076923076</v>
       </c>
       <c r="AD18">
-        <v>13878.80585211546</v>
+        <v>14220.492866407263</v>
       </c>
       <c r="AE18">
-        <v>14935.077154685736</v>
+        <v>16125.770653514181</v>
       </c>
       <c r="AF18">
-        <v>15905.627094725702</v>
+        <v>17065.268065268065</v>
       </c>
       <c r="AG18">
-        <v>17165.773610180844</v>
+        <v>18354.189944134079</v>
       </c>
       <c r="AH18">
-        <v>18436.213991769549</v>
+        <v>19053.763440860217</v>
       </c>
       <c r="AI18">
-        <v>20092.344713490751</v>
+        <v>21058.885383806519</v>
       </c>
       <c r="AJ18">
-        <v>21473.074696004634</v>
+        <v>21665.301944728759</v>
       </c>
       <c r="AK18">
-        <v>23181.576740285156</v>
+        <v>23383.149448345033</v>
       </c>
       <c r="AL18">
-        <v>24506.710044733631</v>
+        <v>24420.689655172413</v>
       </c>
       <c r="AM18">
-        <v>25713.912816496995</v>
+        <v>26896.887159533071</v>
       </c>
       <c r="AN18">
-        <v>26854.895104895102</v>
+        <v>28126.999059266229</v>
       </c>
       <c r="AO18">
-        <v>29101.214574898786</v>
+        <v>29821.591948764868</v>
       </c>
       <c r="AP18">
-        <v>30286.10478359909</v>
+        <v>31228.926353149956</v>
       </c>
       <c r="AQ18">
-        <v>32185.412626589099</v>
+        <v>34044.019933554817</v>
       </c>
       <c r="AR18">
-        <v>34369.774590163935</v>
+        <v>37643.196202531646</v>
       </c>
       <c r="AS18">
-        <v>35971.358748778104</v>
+        <v>38846.456692913387</v>
       </c>
       <c r="AT18">
-        <v>37915.063350539654</v>
+        <v>43367.000771010025</v>
       </c>
       <c r="AU18">
-        <v>38508.658989935626</v>
+        <v>42836.041358936483</v>
       </c>
       <c r="AV18">
-        <v>39314.854111405839</v>
+        <v>42580.463808854533</v>
       </c>
       <c r="AW18">
-        <v>40051.756803306926</v>
+        <v>44274.193548387098</v>
       </c>
       <c r="AX18">
-        <v>40651.990908325613</v>
+        <v>45966.233766233767</v>
       </c>
       <c r="AY18">
-        <v>41562.402174808471</v>
+        <v>49944.862155388473</v>
       </c>
       <c r="AZ18">
-        <v>42318.272851077469</v>
+        <v>49387.234042553187</v>
       </c>
       <c r="BA18">
-        <v>43913.432835820902</v>
+        <v>53258.196721311477</v>
       </c>
       <c r="BB18">
-        <v>45570.571032784363</v>
+        <v>55003.348214285717</v>
       </c>
       <c r="BC18">
-        <v>48383.44160749358</v>
+        <v>52154.015401540157</v>
       </c>
       <c r="BD18">
-        <v>50500.146177459435</v>
+        <v>55692.475463467832</v>
       </c>
       <c r="BE18">
-        <v>52741.281138790036</v>
+        <v>57369.92969172525</v>
       </c>
       <c r="BF18">
-        <v>55108.662295996655</v>
+        <v>60703.703703703701</v>
       </c>
       <c r="BG18">
-        <v>56825.366518922609</v>
+        <v>62030.793319415454</v>
       </c>
       <c r="BH18">
-        <v>58765.915119363395</v>
+        <v>66120.08281573499</v>
       </c>
       <c r="BI18">
-        <v>60491.013335051211</v>
+        <v>68995.977878330814</v>
       </c>
       <c r="BJ18">
-        <v>63085.005015045135</v>
+        <v>66019.950124688272</v>
       </c>
       <c r="BK18">
-        <v>64805.95362568424</v>
+        <v>66364.982133741709</v>
       </c>
       <c r="BL18">
-        <v>67085.218337970247</v>
+        <v>71559.670781893001</v>
       </c>
     </row>
     <row r="19" spans="1:64">
@@ -4147,193 +4144,193 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4505.4945054945056</v>
+        <v>3108.9743589743589</v>
       </c>
       <c r="C19">
-        <v>4652.6610644257707</v>
+        <v>3213.0314232902033</v>
       </c>
       <c r="D19">
-        <v>4793.7853107344636</v>
+        <v>3259.5108695652175</v>
       </c>
       <c r="E19">
-        <v>5223.7960339943347</v>
+        <v>3359.8452278589853</v>
       </c>
       <c r="F19">
-        <v>5598.8538681948421</v>
+        <v>3459.4026083298277</v>
       </c>
       <c r="G19">
-        <v>5949.1525423728817</v>
+        <v>3495.6665290961619</v>
       </c>
       <c r="H19">
-        <v>6136.7521367521367</v>
+        <v>3626.3552960800671</v>
       </c>
       <c r="I19">
-        <v>6356.3535911602203</v>
+        <v>3734.8515656771046</v>
       </c>
       <c r="J19">
-        <v>6615.5913978494618</v>
+        <v>3749.8033044846579</v>
       </c>
       <c r="K19">
-        <v>6909.090909090909</v>
+        <v>3949.7859089139743</v>
       </c>
       <c r="L19">
-        <v>7273.2095490716183</v>
+        <v>4049.6062992125985</v>
       </c>
       <c r="M19">
-        <v>7793.367346938775</v>
+        <v>4266.6921022510496</v>
       </c>
       <c r="N19">
-        <v>8031.476997578693</v>
+        <v>4226.9870609981517</v>
       </c>
       <c r="O19">
-        <v>8311.3207547169804</v>
+        <v>4350.1110288675054</v>
       </c>
       <c r="P19">
-        <v>8394.5578231292529</v>
+        <v>4543.8848920863311</v>
       </c>
       <c r="Q19">
-        <v>8655.0218340611355</v>
+        <v>4642.7076064200983</v>
       </c>
       <c r="R19">
-        <v>9095.3389830508477</v>
+        <v>4851.0210913960491</v>
       </c>
       <c r="S19">
-        <v>9387.9668049792526</v>
+        <v>5019.2061459667093</v>
       </c>
       <c r="T19">
-        <v>9647.1774193548372</v>
+        <v>5180.7668898356669</v>
       </c>
       <c r="U19">
-        <v>9638.9961389961391</v>
+        <v>5435.1933864777084</v>
       </c>
       <c r="V19">
-        <v>10226.415094339623</v>
+        <v>5762.5</v>
       </c>
       <c r="W19">
-        <v>10245.901639344263</v>
+        <v>5995.380434782609</v>
       </c>
       <c r="X19">
-        <v>10850.799289520426</v>
+        <v>6308.2646824342273</v>
       </c>
       <c r="Y19">
-        <v>11195.876288659792</v>
+        <v>6707.6403326403324</v>
       </c>
       <c r="Z19">
-        <v>11063.694267515924</v>
+        <v>7077.7162977867201</v>
       </c>
       <c r="AA19">
-        <v>11810.930576070899</v>
+        <v>7390.3717826501434</v>
       </c>
       <c r="AB19">
-        <v>12387.323943661971</v>
+        <v>7614.6489386517378</v>
       </c>
       <c r="AC19">
-        <v>13326.923076923076</v>
+        <v>8448.6261833294866</v>
       </c>
       <c r="AD19">
-        <v>14220.492866407263</v>
+        <v>9217.9401993355477</v>
       </c>
       <c r="AE19">
-        <v>16125.770653514181</v>
+        <v>9867.503190131858</v>
       </c>
       <c r="AF19">
-        <v>17065.268065268065</v>
+        <v>10622.418879056047</v>
       </c>
       <c r="AG19">
-        <v>18354.189944134079</v>
+        <v>11480.665047636838</v>
       </c>
       <c r="AH19">
-        <v>19053.763440860217</v>
+        <v>11832.396154543807</v>
       </c>
       <c r="AI19">
-        <v>21058.885383806519</v>
+        <v>12841.141246917929</v>
       </c>
       <c r="AJ19">
-        <v>21665.301944728759</v>
+        <v>13637.558360712432</v>
       </c>
       <c r="AK19">
-        <v>23383.149448345033</v>
+        <v>14621.76509621765</v>
       </c>
       <c r="AL19">
-        <v>24420.689655172413</v>
+        <v>14832.354758961681</v>
       </c>
       <c r="AM19">
-        <v>26896.887159533071</v>
+        <v>15371.428571428572</v>
       </c>
       <c r="AN19">
-        <v>28126.999059266229</v>
+        <v>16292.035398230088</v>
       </c>
       <c r="AO19">
-        <v>29821.591948764868</v>
+        <v>16449.924440170355</v>
       </c>
       <c r="AP19">
-        <v>31228.926353149956</v>
+        <v>17734.607218683654</v>
       </c>
       <c r="AQ19">
-        <v>34044.019933554817</v>
+        <v>18445.232873177654</v>
       </c>
       <c r="AR19">
-        <v>37643.196202531646</v>
+        <v>19279.807204464738</v>
       </c>
       <c r="AS19">
-        <v>38846.456692913387</v>
+        <v>20043.005247664147</v>
       </c>
       <c r="AT19">
-        <v>43367.000771010025</v>
+        <v>20323.301698301697</v>
       </c>
       <c r="AU19">
-        <v>42836.041358936483</v>
+        <v>20843.90067502411</v>
       </c>
       <c r="AV19">
-        <v>42580.463808854533</v>
+        <v>21130.363995813466</v>
       </c>
       <c r="AW19">
-        <v>44274.193548387098</v>
+        <v>21193.400447427295</v>
       </c>
       <c r="AX19">
-        <v>45966.233766233767</v>
+        <v>22004.247903278512</v>
       </c>
       <c r="AY19">
-        <v>49944.862155388473</v>
+        <v>23559.235124452516</v>
       </c>
       <c r="AZ19">
-        <v>49387.234042553187</v>
+        <v>24977.817121433036</v>
       </c>
       <c r="BA19">
-        <v>53258.196721311477</v>
+        <v>26878.8371620248</v>
       </c>
       <c r="BB19">
-        <v>55003.348214285717</v>
+        <v>28191.533864541831</v>
       </c>
       <c r="BC19">
-        <v>52154.015401540157</v>
+        <v>28969.501466275658</v>
       </c>
       <c r="BD19">
-        <v>55692.475463467832</v>
+        <v>29899.371069182391</v>
       </c>
       <c r="BE19">
-        <v>57369.92969172525</v>
+        <v>30647.865853658535</v>
       </c>
       <c r="BF19">
-        <v>60703.703703703701</v>
+        <v>31918.71578361325</v>
       </c>
       <c r="BG19">
-        <v>62030.793319415454</v>
+        <v>33270.581828083872</v>
       </c>
       <c r="BH19">
-        <v>66120.08281573499</v>
+        <v>34071.472854485874</v>
       </c>
       <c r="BI19">
-        <v>68995.977878330814</v>
+        <v>35695.101863892502</v>
       </c>
       <c r="BJ19">
-        <v>66019.950124688272</v>
+        <v>34972.10226291242</v>
       </c>
       <c r="BK19">
-        <v>66364.982133741709</v>
+        <v>34530.423162583516</v>
       </c>
       <c r="BL19">
-        <v>71559.670781893001</v>
+        <v>36999.911205824901</v>
       </c>
     </row>
     <row r="20" spans="1:64">
@@ -4341,193 +4338,193 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3108.9743589743589</v>
+        <v>2328.5586392121754</v>
       </c>
       <c r="C20">
-        <v>3213.0314232902033</v>
+        <v>2383.3827893175076</v>
       </c>
       <c r="D20">
-        <v>3259.5108695652175</v>
+        <v>2403.0769230769229</v>
       </c>
       <c r="E20">
-        <v>3359.8452278589853</v>
+        <v>2544.7310647639956</v>
       </c>
       <c r="F20">
-        <v>3459.4026083298277</v>
+        <v>2684.2400448681997</v>
       </c>
       <c r="G20">
-        <v>3495.6665290961619</v>
+        <v>2814.8045467147217</v>
       </c>
       <c r="H20">
-        <v>3626.3552960800671</v>
+        <v>2946.7422096317277</v>
       </c>
       <c r="I20">
-        <v>3734.8515656771046</v>
+        <v>2950.3234152652003</v>
       </c>
       <c r="J20">
-        <v>3749.8033044846579</v>
+        <v>3035.0232672054858</v>
       </c>
       <c r="K20">
-        <v>3949.7859089139743</v>
+        <v>3197.9090688062242</v>
       </c>
       <c r="L20">
-        <v>4049.6062992125985</v>
+        <v>3229.5508274231679</v>
       </c>
       <c r="M20">
-        <v>4266.6921022510496</v>
+        <v>3331.9568708419361</v>
       </c>
       <c r="N20">
-        <v>4226.9870609981517</v>
+        <v>3503.6003600360036</v>
       </c>
       <c r="O20">
-        <v>4350.1110288675054</v>
+        <v>3527.6752767527678</v>
       </c>
       <c r="P20">
-        <v>4543.8848920863311</v>
+        <v>3661.7273497036413</v>
       </c>
       <c r="Q20">
-        <v>4642.7076064200983</v>
+        <v>3793.6642027455123</v>
       </c>
       <c r="R20">
-        <v>4851.0210913960491</v>
+        <v>3978.4768211920532</v>
       </c>
       <c r="S20">
-        <v>5019.2061459667093</v>
+        <v>4148.1863149216815</v>
       </c>
       <c r="T20">
-        <v>5180.7668898356669</v>
+        <v>4427.3850516508001</v>
       </c>
       <c r="U20">
-        <v>5435.1933864777084</v>
+        <v>4692.0275192229865</v>
       </c>
       <c r="V20">
-        <v>5762.5</v>
+        <v>4969.9459026247241</v>
       </c>
       <c r="W20">
-        <v>5995.380434782609</v>
+        <v>5395.3535353535353</v>
       </c>
       <c r="X20">
-        <v>6308.2646824342273</v>
+        <v>5683.9198036006546</v>
       </c>
       <c r="Y20">
-        <v>6707.6403326403324</v>
+        <v>6123.5051546391751</v>
       </c>
       <c r="Z20">
-        <v>7077.7162977867201</v>
+        <v>6512.0246659815002</v>
       </c>
       <c r="AA20">
-        <v>7390.3717826501434</v>
+        <v>7071.8698517298189</v>
       </c>
       <c r="AB20">
-        <v>7614.6489386517378</v>
+        <v>7850.8604206500959</v>
       </c>
       <c r="AC20">
-        <v>8448.6261833294866</v>
+        <v>8353.8461538461543</v>
       </c>
       <c r="AD20">
-        <v>9217.9401993355477</v>
+        <v>9163.5834545832458</v>
       </c>
       <c r="AE20">
-        <v>9867.503190131858</v>
+        <v>9639.2712550607284</v>
       </c>
       <c r="AF20">
-        <v>10622.418879056047</v>
+        <v>10933.201581027668</v>
       </c>
       <c r="AG20">
-        <v>11480.665047636838</v>
+        <v>12097.483020375548</v>
       </c>
       <c r="AH20">
-        <v>11832.396154543807</v>
+        <v>14060.717948717949</v>
       </c>
       <c r="AI20">
-        <v>12841.141246917929</v>
+        <v>15524.422644594319</v>
       </c>
       <c r="AJ20">
-        <v>13637.558360712432</v>
+        <v>15798.466814605608</v>
       </c>
       <c r="AK20">
-        <v>14621.76509621765</v>
+        <v>17430.809399477806</v>
       </c>
       <c r="AL20">
-        <v>14832.354758961681</v>
+        <v>18815.126050420167</v>
       </c>
       <c r="AM20">
-        <v>15371.428571428572</v>
+        <v>20134.747706422018</v>
       </c>
       <c r="AN20">
-        <v>16292.035398230088</v>
+        <v>21821.124361158432</v>
       </c>
       <c r="AO20">
-        <v>16449.924440170355</v>
+        <v>22250.505421797465</v>
       </c>
       <c r="AP20">
-        <v>17734.607218683654</v>
+        <v>23971.711711711712</v>
       </c>
       <c r="AQ20">
-        <v>18445.232873177654</v>
+        <v>25563.536886692553</v>
       </c>
       <c r="AR20">
-        <v>19279.807204464738</v>
+        <v>26773.834377174669</v>
       </c>
       <c r="AS20">
-        <v>20043.005247664147</v>
+        <v>27170.995293707514</v>
       </c>
       <c r="AT20">
-        <v>20323.301698301697</v>
+        <v>28473.45890410959</v>
       </c>
       <c r="AU20">
-        <v>20843.90067502411</v>
+        <v>30122.655854029395</v>
       </c>
       <c r="AV20">
-        <v>21130.363995813466</v>
+        <v>32415.944246132924</v>
       </c>
       <c r="AW20">
-        <v>21193.400447427295</v>
+        <v>33256.129887342613</v>
       </c>
       <c r="AX20">
-        <v>22004.247903278512</v>
+        <v>34642.552493438321</v>
       </c>
       <c r="AY20">
-        <v>23559.235124452516</v>
+        <v>36066.247582205033</v>
       </c>
       <c r="AZ20">
-        <v>24977.817121433036</v>
+        <v>37397.197685044172</v>
       </c>
       <c r="BA20">
-        <v>26878.8371620248</v>
+        <v>38945.787655804175</v>
       </c>
       <c r="BB20">
-        <v>28191.533864541831</v>
+        <v>41246.359583952457</v>
       </c>
       <c r="BC20">
-        <v>28969.501466275658</v>
+        <v>39728.270676691725</v>
       </c>
       <c r="BD20">
-        <v>29899.371069182391</v>
+        <v>41359.361393323663</v>
       </c>
       <c r="BE20">
-        <v>30647.865853658535</v>
+        <v>41678.499278499279</v>
       </c>
       <c r="BF20">
-        <v>31918.71578361325</v>
+        <v>43070.160366552118</v>
       </c>
       <c r="BG20">
-        <v>33270.581828083872</v>
+        <v>45218.402426693632</v>
       </c>
       <c r="BH20">
-        <v>34071.472854485874</v>
+        <v>47603.73295046662</v>
       </c>
       <c r="BI20">
-        <v>35695.101863892502</v>
+        <v>48621.499292786422</v>
       </c>
       <c r="BJ20">
-        <v>34972.10226291242</v>
+        <v>48287.022685641823</v>
       </c>
       <c r="BK20">
-        <v>34530.423162583516</v>
+        <v>49440.156680690554</v>
       </c>
       <c r="BL20">
-        <v>36999.911205824901</v>
+        <v>52909.090909090904</v>
       </c>
     </row>
     <row r="21" spans="1:64">
@@ -4535,386 +4532,192 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2328.5586392121754</v>
+        <v>3794.6541677223208</v>
       </c>
       <c r="C21">
-        <v>2383.3827893175076</v>
+        <v>3674.1427900422732</v>
       </c>
       <c r="D21">
-        <v>2403.0769230769229</v>
+        <v>3586.9120654396725</v>
       </c>
       <c r="E21">
-        <v>2544.7310647639956</v>
+        <v>3753.7169337709979</v>
       </c>
       <c r="F21">
-        <v>2684.2400448681997</v>
+        <v>4004.5036930282831</v>
       </c>
       <c r="G21">
-        <v>2814.8045467147217</v>
+        <v>4183.5835655848241</v>
       </c>
       <c r="H21">
-        <v>2946.7422096317277</v>
+        <v>4340.6514306280369</v>
       </c>
       <c r="I21">
-        <v>2950.3234152652003</v>
+        <v>4550.8853514576995</v>
       </c>
       <c r="J21">
-        <v>3035.0232672054858</v>
+        <v>4757.4908007709828</v>
       </c>
       <c r="K21">
-        <v>3197.9090688062242</v>
+        <v>4958.0664446152532</v>
       </c>
       <c r="L21">
-        <v>3229.5508274231679</v>
+        <v>5253.4025178632182</v>
       </c>
       <c r="M21">
-        <v>3331.9568708419361</v>
+        <v>5458.8777219430485</v>
       </c>
       <c r="N21">
-        <v>3503.6003600360036</v>
+        <v>5647.5763747454175</v>
       </c>
       <c r="O21">
-        <v>3527.6752767527678</v>
+        <v>5821.6434452184931</v>
       </c>
       <c r="P21">
-        <v>3661.7273497036413</v>
+        <v>6063.1927339901476</v>
       </c>
       <c r="Q21">
-        <v>3793.6642027455123</v>
+        <v>6381.9732769683706</v>
       </c>
       <c r="R21">
-        <v>3978.4768211920532</v>
+        <v>6630.4173061463134</v>
       </c>
       <c r="S21">
-        <v>4148.1863149216815</v>
+        <v>6864.0453418349271</v>
       </c>
       <c r="T21">
-        <v>4427.3850516508001</v>
+        <v>7010.6382978723404</v>
       </c>
       <c r="U21">
-        <v>4692.0275192229865</v>
+        <v>7314.1196116024494</v>
       </c>
       <c r="V21">
-        <v>4969.9459026247241</v>
+        <v>7894.6010797840436</v>
       </c>
       <c r="W21">
-        <v>5395.3535353535353</v>
+        <v>8459.6057664018826</v>
       </c>
       <c r="X21">
-        <v>5683.9198036006546</v>
+        <v>9274.0801499882837</v>
       </c>
       <c r="Y21">
-        <v>6123.5051546391751</v>
+        <v>10108.366580614878</v>
       </c>
       <c r="Z21">
-        <v>6512.0246659815002</v>
+        <v>10993.132190655084</v>
       </c>
       <c r="AA21">
-        <v>7071.8698517298189</v>
+        <v>11694.973101174293</v>
       </c>
       <c r="AB21">
-        <v>7850.8604206500959</v>
+        <v>12614.212047373492</v>
       </c>
       <c r="AC21">
-        <v>8353.8461538461543</v>
+        <v>13712.166666666666</v>
       </c>
       <c r="AD21">
-        <v>9163.5834545832458</v>
+        <v>14949.54714674668</v>
       </c>
       <c r="AE21">
-        <v>9639.2712550607284</v>
+        <v>16039.572898893721</v>
       </c>
       <c r="AF21">
-        <v>10933.201581027668</v>
+        <v>17161.150767899631</v>
       </c>
       <c r="AG21">
-        <v>12097.483020375548</v>
+        <v>18272.299227594962</v>
       </c>
       <c r="AH21">
-        <v>14060.717948717949</v>
+        <v>19889.794012348884</v>
       </c>
       <c r="AI21">
-        <v>15524.422644594319</v>
+        <v>22206.444537288491</v>
       </c>
       <c r="AJ21">
-        <v>15798.466814605608</v>
+        <v>24116.664055564263</v>
       </c>
       <c r="AK21">
-        <v>17430.809399477806</v>
+        <v>25711.50636344669</v>
       </c>
       <c r="AL21">
-        <v>18815.126050420167</v>
+        <v>27688.799670578548</v>
       </c>
       <c r="AM21">
-        <v>20134.747706422018</v>
+        <v>29445.567062389495</v>
       </c>
       <c r="AN21">
-        <v>21821.124361158432</v>
+        <v>30721.913733267229</v>
       </c>
       <c r="AO21">
-        <v>22250.505421797465</v>
+        <v>32040.973236009733</v>
       </c>
       <c r="AP21">
-        <v>23971.711711711712</v>
+        <v>33729.407825504641</v>
       </c>
       <c r="AQ21">
-        <v>25563.536886692553</v>
+        <v>35351.907536177408</v>
       </c>
       <c r="AR21">
-        <v>26773.834377174669</v>
+        <v>36961.628386741853</v>
       </c>
       <c r="AS21">
-        <v>27170.995293707514</v>
+        <v>39318.210950375389</v>
       </c>
       <c r="AT21">
-        <v>28473.45890410959</v>
+        <v>41121.169216716145</v>
       </c>
       <c r="AU21">
-        <v>30122.655854029395</v>
+        <v>42484.03575989783</v>
       </c>
       <c r="AV21">
-        <v>32415.944246132924</v>
+        <v>43867.933103072166</v>
       </c>
       <c r="AW21">
-        <v>33256.129887342613</v>
+        <v>45055.626019206378</v>
       </c>
       <c r="AX21">
-        <v>34642.552493438321</v>
+        <v>46486.292990167203</v>
       </c>
       <c r="AY21">
-        <v>36066.247582205033</v>
+        <v>48046.220009053868</v>
       </c>
       <c r="AZ21">
-        <v>37397.197685044172</v>
+        <v>49237.254726279003</v>
       </c>
       <c r="BA21">
-        <v>38945.787655804175</v>
+        <v>51033.52350625801</v>
       </c>
       <c r="BB21">
-        <v>41246.359583952457</v>
+        <v>52628.085216939471</v>
       </c>
       <c r="BC21">
-        <v>39728.270676691725</v>
+        <v>54441.243010201899</v>
       </c>
       <c r="BD21">
-        <v>41359.361393323663</v>
+        <v>56611.992133562075</v>
       </c>
       <c r="BE21">
-        <v>41678.499278499279</v>
+        <v>59797.608632254305</v>
       </c>
       <c r="BF21">
-        <v>43070.160366552118</v>
+        <v>62686.956883289677</v>
       </c>
       <c r="BG21">
-        <v>45218.402426693632</v>
+        <v>65704.271450470231</v>
       </c>
       <c r="BH21">
-        <v>47603.73295046662</v>
+        <v>68634.23868312758</v>
       </c>
       <c r="BI21">
-        <v>48621.499292786422</v>
+        <v>71788.741586783595</v>
       </c>
       <c r="BJ21">
-        <v>48287.022685641823</v>
+        <v>74566.568820620043</v>
       </c>
       <c r="BK21">
-        <v>49440.156680690554</v>
+        <v>76914.190758388722</v>
       </c>
       <c r="BL21">
-        <v>52909.090909090904</v>
-      </c>
-    </row>
-    <row r="22" spans="1:64">
-      <c r="A22" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22">
-        <v>3794.6541677223208</v>
-      </c>
-      <c r="C22">
-        <v>3674.1427900422732</v>
-      </c>
-      <c r="D22">
-        <v>3586.9120654396725</v>
-      </c>
-      <c r="E22">
-        <v>3753.7169337709979</v>
-      </c>
-      <c r="F22">
-        <v>4004.5036930282831</v>
-      </c>
-      <c r="G22">
-        <v>4183.5835655848241</v>
-      </c>
-      <c r="H22">
-        <v>4340.6514306280369</v>
-      </c>
-      <c r="I22">
-        <v>4550.8853514576995</v>
-      </c>
-      <c r="J22">
-        <v>4757.4908007709828</v>
-      </c>
-      <c r="K22">
-        <v>4958.0664446152532</v>
-      </c>
-      <c r="L22">
-        <v>5253.4025178632182</v>
-      </c>
-      <c r="M22">
-        <v>5458.8777219430485</v>
-      </c>
-      <c r="N22">
-        <v>5647.5763747454175</v>
-      </c>
-      <c r="O22">
-        <v>5821.6434452184931</v>
-      </c>
-      <c r="P22">
-        <v>6063.1927339901476</v>
-      </c>
-      <c r="Q22">
-        <v>6381.9732769683706</v>
-      </c>
-      <c r="R22">
-        <v>6630.4173061463134</v>
-      </c>
-      <c r="S22">
-        <v>6864.0453418349271</v>
-      </c>
-      <c r="T22">
-        <v>7010.6382978723404</v>
-      </c>
-      <c r="U22">
-        <v>7314.1196116024494</v>
-      </c>
-      <c r="V22">
-        <v>7894.6010797840436</v>
-      </c>
-      <c r="W22">
-        <v>8459.6057664018826</v>
-      </c>
-      <c r="X22">
-        <v>9274.0801499882837</v>
-      </c>
-      <c r="Y22">
-        <v>10108.366580614878</v>
-      </c>
-      <c r="Z22">
-        <v>10993.132190655084</v>
-      </c>
-      <c r="AA22">
-        <v>11694.973101174293</v>
-      </c>
-      <c r="AB22">
-        <v>12614.212047373492</v>
-      </c>
-      <c r="AC22">
-        <v>13712.166666666666</v>
-      </c>
-      <c r="AD22">
-        <v>14949.54714674668</v>
-      </c>
-      <c r="AE22">
-        <v>16039.572898893721</v>
-      </c>
-      <c r="AF22">
-        <v>17161.150767899631</v>
-      </c>
-      <c r="AG22">
-        <v>18272.299227594962</v>
-      </c>
-      <c r="AH22">
-        <v>19889.794012348884</v>
-      </c>
-      <c r="AI22">
-        <v>22206.444537288491</v>
-      </c>
-      <c r="AJ22">
-        <v>24116.664055564263</v>
-      </c>
-      <c r="AK22">
-        <v>25711.50636344669</v>
-      </c>
-      <c r="AL22">
-        <v>27688.799670578548</v>
-      </c>
-      <c r="AM22">
-        <v>29445.567062389495</v>
-      </c>
-      <c r="AN22">
-        <v>30721.913733267229</v>
-      </c>
-      <c r="AO22">
-        <v>32040.973236009733</v>
-      </c>
-      <c r="AP22">
-        <v>33729.407825504641</v>
-      </c>
-      <c r="AQ22">
-        <v>35351.907536177408</v>
-      </c>
-      <c r="AR22">
-        <v>36961.628386741853</v>
-      </c>
-      <c r="AS22">
-        <v>39318.210950375389</v>
-      </c>
-      <c r="AT22">
-        <v>41121.169216716145</v>
-      </c>
-      <c r="AU22">
-        <v>42484.03575989783</v>
-      </c>
-      <c r="AV22">
-        <v>43867.933103072166</v>
-      </c>
-      <c r="AW22">
-        <v>45055.626019206378</v>
-      </c>
-      <c r="AX22">
-        <v>46486.292990167203</v>
-      </c>
-      <c r="AY22">
-        <v>48046.220009053868</v>
-      </c>
-      <c r="AZ22">
-        <v>49237.254726279003</v>
-      </c>
-      <c r="BA22">
-        <v>51033.52350625801</v>
-      </c>
-      <c r="BB22">
-        <v>52628.085216939471</v>
-      </c>
-      <c r="BC22">
-        <v>54441.243010201899</v>
-      </c>
-      <c r="BD22">
-        <v>56611.992133562075</v>
-      </c>
-      <c r="BE22">
-        <v>59797.608632254305</v>
-      </c>
-      <c r="BF22">
-        <v>62686.956883289677</v>
-      </c>
-      <c r="BG22">
-        <v>65704.271450470231</v>
-      </c>
-      <c r="BH22">
-        <v>68634.23868312758</v>
-      </c>
-      <c r="BI22">
-        <v>71788.741586783595</v>
-      </c>
-      <c r="BJ22">
-        <v>74566.568820620043</v>
-      </c>
-      <c r="BK22">
-        <v>76914.190758388722</v>
-      </c>
-      <c r="BL22">
         <v>78847.632780581596</v>
       </c>
     </row>

--- a/va_ind.xlsx
+++ b/va_ind.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14140" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14360" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
     <t>Agriculture, forestry, fishing, and hunting</t>
   </si>
@@ -51,34 +51,16 @@
     <t>Information</t>
   </si>
   <si>
-    <t>Finance and insurance</t>
-  </si>
-  <si>
-    <t>Real estate and rental and leasing</t>
-  </si>
-  <si>
-    <t>Professional, scientific, and technical services</t>
-  </si>
-  <si>
-    <t>Management, Administrative and waste services</t>
-  </si>
-  <si>
-    <t>Educational services</t>
-  </si>
-  <si>
-    <t>Health care and social assistance</t>
-  </si>
-  <si>
-    <t>Arts, entertainment, and recreation</t>
-  </si>
-  <si>
-    <t>Accommodation and food services</t>
-  </si>
-  <si>
-    <t>Other services, except government</t>
-  </si>
-  <si>
-    <t>Government</t>
+    <t>Finance, insurance, real estate, rental, and leasing</t>
+  </si>
+  <si>
+    <t>Professional and business services</t>
+  </si>
+  <si>
+    <t>Educational services, health care, and social assistance</t>
+  </si>
+  <si>
+    <t>Arts, entertainment, recreation, accommodation, and food services</t>
   </si>
   <si>
     <t>Industry</t>
@@ -271,6 +253,9 @@
   </si>
   <si>
     <t>y2010</t>
+  </si>
+  <si>
+    <t>Other services</t>
   </si>
 </sst>
 </file>
@@ -639,206 +624,206 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BL21"/>
+  <dimension ref="A1:BL16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BD1" workbookViewId="0">
-      <selection activeCell="BN5" sqref="BN5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:64">
       <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" t="s">
+      <c r="H1" t="s">
         <v>21</v>
       </c>
-      <c r="C1" t="s">
+      <c r="I1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" t="s">
+      <c r="J1" t="s">
         <v>23</v>
       </c>
-      <c r="E1" t="s">
+      <c r="K1" t="s">
         <v>24</v>
       </c>
-      <c r="F1" t="s">
+      <c r="L1" t="s">
         <v>25</v>
       </c>
-      <c r="G1" t="s">
+      <c r="M1" t="s">
         <v>26</v>
       </c>
-      <c r="H1" t="s">
+      <c r="N1" t="s">
         <v>27</v>
       </c>
-      <c r="I1" t="s">
+      <c r="O1" t="s">
         <v>28</v>
       </c>
-      <c r="J1" t="s">
+      <c r="P1" t="s">
         <v>29</v>
       </c>
-      <c r="K1" t="s">
+      <c r="Q1" t="s">
         <v>30</v>
       </c>
-      <c r="L1" t="s">
+      <c r="R1" t="s">
         <v>31</v>
       </c>
-      <c r="M1" t="s">
+      <c r="S1" t="s">
         <v>32</v>
       </c>
-      <c r="N1" t="s">
+      <c r="T1" t="s">
         <v>33</v>
       </c>
-      <c r="O1" t="s">
+      <c r="U1" t="s">
         <v>34</v>
       </c>
-      <c r="P1" t="s">
+      <c r="V1" t="s">
         <v>35</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="W1" t="s">
         <v>36</v>
       </c>
-      <c r="R1" t="s">
+      <c r="X1" t="s">
         <v>37</v>
       </c>
-      <c r="S1" t="s">
+      <c r="Y1" t="s">
         <v>38</v>
       </c>
-      <c r="T1" t="s">
+      <c r="Z1" t="s">
         <v>39</v>
       </c>
-      <c r="U1" t="s">
+      <c r="AA1" t="s">
         <v>40</v>
       </c>
-      <c r="V1" t="s">
+      <c r="AB1" t="s">
         <v>41</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AC1" t="s">
         <v>42</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AD1" t="s">
         <v>43</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AE1" t="s">
         <v>44</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AF1" t="s">
         <v>45</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AG1" t="s">
         <v>46</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AH1" t="s">
         <v>47</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AI1" t="s">
         <v>48</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AJ1" t="s">
         <v>49</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AK1" t="s">
         <v>50</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AL1" t="s">
         <v>51</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AM1" t="s">
         <v>52</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AN1" t="s">
         <v>53</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AO1" t="s">
         <v>54</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AP1" t="s">
         <v>55</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AQ1" t="s">
         <v>56</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AR1" t="s">
         <v>57</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AS1" t="s">
         <v>58</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AT1" t="s">
         <v>59</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AU1" t="s">
         <v>60</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AV1" t="s">
         <v>61</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AW1" t="s">
         <v>62</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AX1" t="s">
         <v>63</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AY1" t="s">
         <v>64</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AZ1" t="s">
         <v>65</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="BA1" t="s">
         <v>66</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="BB1" t="s">
         <v>67</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="BC1" t="s">
         <v>68</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="BD1" t="s">
         <v>69</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="BE1" t="s">
         <v>70</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BF1" t="s">
         <v>71</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BG1" t="s">
         <v>72</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BH1" t="s">
         <v>73</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BI1" t="s">
         <v>74</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BJ1" t="s">
         <v>75</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BK1" t="s">
         <v>76</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BL1" t="s">
         <v>77</v>
-      </c>
-      <c r="BG1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BH1" t="s">
-        <v>79</v>
-      </c>
-      <c r="BI1" t="s">
-        <v>80</v>
-      </c>
-      <c r="BJ1" t="s">
-        <v>81</v>
-      </c>
-      <c r="BK1" t="s">
-        <v>82</v>
-      </c>
-      <c r="BL1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:64">
@@ -2786,193 +2771,193 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5475.5301794453508</v>
+        <v>15791.736460078168</v>
       </c>
       <c r="C12">
-        <v>5975.494071146245</v>
+        <v>16883.259911894274</v>
       </c>
       <c r="D12">
-        <v>6205.30303030303</v>
+        <v>17803.174603174604</v>
       </c>
       <c r="E12">
-        <v>6623.4788833214034</v>
+        <v>19025.329280648428</v>
       </c>
       <c r="F12">
-        <v>7038.7491502379335</v>
+        <v>20150.611246943765</v>
       </c>
       <c r="G12">
-        <v>7455.1323434473852</v>
+        <v>21388.130004710318</v>
       </c>
       <c r="H12">
-        <v>7674.3318831572406</v>
+        <v>22395.348837209302</v>
       </c>
       <c r="I12">
-        <v>7960.7843137254904</v>
+        <v>23142.857142857141</v>
       </c>
       <c r="J12">
-        <v>8177.9661016949149</v>
+        <v>23617.083333333332</v>
       </c>
       <c r="K12">
-        <v>8452.0844612885758</v>
+        <v>24784.665579119086</v>
       </c>
       <c r="L12">
-        <v>8822.4201152435835</v>
+        <v>25963.730569948188</v>
       </c>
       <c r="M12">
-        <v>9232.6530612244896</v>
+        <v>27046.529662659945</v>
       </c>
       <c r="N12">
-        <v>9551.7410495340846</v>
+        <v>28072.180451127821</v>
       </c>
       <c r="O12">
-        <v>9790.1234567901229</v>
+        <v>29152.094048493756</v>
       </c>
       <c r="P12">
-        <v>9806.3167673014395</v>
+        <v>30341.113105924596</v>
       </c>
       <c r="Q12">
-        <v>9956.06884057971</v>
+        <v>31262.071378586425</v>
       </c>
       <c r="R12">
-        <v>10589.293549802544</v>
+        <v>32545.392723563418</v>
       </c>
       <c r="S12">
-        <v>11180.738226559186</v>
+        <v>33668.415874057071</v>
       </c>
       <c r="T12">
-        <v>11962.09311907705</v>
+        <v>35139.357301940821</v>
       </c>
       <c r="U12">
-        <v>12768.562401263824</v>
+        <v>36453.345610804179</v>
       </c>
       <c r="V12">
-        <v>13601.723491944549</v>
+        <v>37754.012255617155</v>
       </c>
       <c r="W12">
-        <v>14665.711214618417</v>
+        <v>39647.419804741978</v>
       </c>
       <c r="X12">
-        <v>15329.739130434784</v>
+        <v>41245.410367170625</v>
       </c>
       <c r="Y12">
-        <v>16747.506019951838</v>
+        <v>44902.329274748547</v>
       </c>
       <c r="Z12">
-        <v>17701.467645096731</v>
+        <v>47276.813074565885</v>
       </c>
       <c r="AA12">
-        <v>18305.912596401031</v>
+        <v>49439.485811302446</v>
       </c>
       <c r="AB12">
-        <v>20043.154299906859</v>
+        <v>52861.930611281568</v>
       </c>
       <c r="AC12">
-        <v>22466.564885496184</v>
+        <v>58087.535014005603</v>
       </c>
       <c r="AD12">
-        <v>24039.42652329749</v>
+        <v>62023.836549375708</v>
       </c>
       <c r="AE12">
-        <v>27230.217889908257</v>
+        <v>66306.672462508141</v>
       </c>
       <c r="AF12">
-        <v>30283.794678849772</v>
+        <v>71077.829709408659</v>
       </c>
       <c r="AG12">
-        <v>32052.55062804409</v>
+        <v>75999.613750482808</v>
       </c>
       <c r="AH12">
-        <v>34014.331603657025</v>
+        <v>83444.257703081239</v>
       </c>
       <c r="AI12">
-        <v>37185.505159587228</v>
+        <v>91550.983248361255</v>
       </c>
       <c r="AJ12">
-        <v>39616.509433962266</v>
+        <v>99277.929651904502</v>
       </c>
       <c r="AK12">
-        <v>44554.560073512519</v>
+        <v>108350.75287865369</v>
       </c>
       <c r="AL12">
-        <v>47266.666666666664</v>
+        <v>114544.20963651732</v>
       </c>
       <c r="AM12">
-        <v>49780.482596626091</v>
+        <v>119564.35963777491</v>
       </c>
       <c r="AN12">
-        <v>53155.31224655312</v>
+        <v>123448.33410102871</v>
       </c>
       <c r="AO12">
-        <v>54883.015934706571</v>
+        <v>125037.64705882352</v>
       </c>
       <c r="AP12">
-        <v>58141.727728499813</v>
+        <v>132813.19796954317</v>
       </c>
       <c r="AQ12">
-        <v>61905.228758169935</v>
+        <v>140982.466225927</v>
       </c>
       <c r="AR12">
-        <v>66294.050124354311</v>
+        <v>149601.31184942249</v>
       </c>
       <c r="AS12">
-        <v>74528.482247366366</v>
+        <v>161502.03725261931</v>
       </c>
       <c r="AT12">
-        <v>81522.038567493117</v>
+        <v>174737.90677220756</v>
       </c>
       <c r="AU12">
-        <v>85846.916942229145</v>
+        <v>182032.09019947963</v>
       </c>
       <c r="AV12">
-        <v>87568.029169065441</v>
+        <v>187971.55454416157</v>
       </c>
       <c r="AW12">
-        <v>94677.818603751686</v>
+        <v>200562.4197460408</v>
       </c>
       <c r="AX12">
-        <v>99870.026525198933</v>
+        <v>208056.12173670248</v>
       </c>
       <c r="AY12">
-        <v>107694.71153846153</v>
+        <v>219454.83035835947</v>
       </c>
       <c r="AZ12">
-        <v>113136.89839572193</v>
+        <v>222477.12075521177</v>
       </c>
       <c r="BA12">
-        <v>118916.27420198849</v>
+        <v>234947.73251345119</v>
       </c>
       <c r="BB12">
-        <v>132385.68450312718</v>
+        <v>254029.37436419126</v>
       </c>
       <c r="BC12">
-        <v>143535.51257915454</v>
+        <v>270770.41970344307</v>
       </c>
       <c r="BD12">
-        <v>147537.50213565692</v>
+        <v>279039.80411853344</v>
       </c>
       <c r="BE12">
-        <v>151671.76470588235</v>
+        <v>286700.37128712871</v>
       </c>
       <c r="BF12">
-        <v>153862.38071320942</v>
+        <v>294995.32997419196</v>
       </c>
       <c r="BG12">
-        <v>168029.00939508819</v>
+        <v>314356.59852425306</v>
       </c>
       <c r="BH12">
-        <v>176437.26788309382</v>
+        <v>328108.92263882293</v>
       </c>
       <c r="BI12">
-        <v>175353.79119987012</v>
+        <v>340854.56931519922</v>
       </c>
       <c r="BJ12">
-        <v>172741.74821695141</v>
+        <v>354690.62385990517</v>
       </c>
       <c r="BK12">
-        <v>190000.69156293222</v>
+        <v>377936.25701172871</v>
       </c>
       <c r="BL12">
-        <v>217123.42657342658</v>
+        <v>388776.3413057531</v>
       </c>
     </row>
     <row r="13" spans="1:64">
@@ -2980,193 +2965,193 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>38176.991150442474</v>
+        <v>5242.9906542056078</v>
       </c>
       <c r="C13">
-        <v>41925.58983666062</v>
+        <v>5532.576210400478</v>
       </c>
       <c r="D13">
-        <v>44661.403508771931</v>
+        <v>5936.0599078341011</v>
       </c>
       <c r="E13">
-        <v>49051.993067590985</v>
+        <v>6302.7571580063623</v>
       </c>
       <c r="F13">
-        <v>53752.613240418119</v>
+        <v>6476.8145161290322</v>
       </c>
       <c r="G13">
-        <v>58987.804878048781</v>
+        <v>6726.4833574529666</v>
       </c>
       <c r="H13">
-        <v>62953.767123287667</v>
+        <v>7025.3041362530412</v>
       </c>
       <c r="I13">
-        <v>64825.448613376837</v>
+        <v>7438.1970260223052</v>
       </c>
       <c r="J13">
-        <v>66993.650793650784</v>
+        <v>7539.9305555555557</v>
       </c>
       <c r="K13">
-        <v>74646.280991735533</v>
+        <v>7919.3954659949623</v>
       </c>
       <c r="L13">
-        <v>80501.666666666672</v>
+        <v>8236.9204593789873</v>
       </c>
       <c r="M13">
-        <v>83452.342487883681</v>
+        <v>8753.036437246963</v>
       </c>
       <c r="N13">
-        <v>88882.447665056359</v>
+        <v>8780.326594090202</v>
       </c>
       <c r="O13">
-        <v>95347.402597402586</v>
+        <v>9133.5356600910472</v>
       </c>
       <c r="P13">
-        <v>100295.88607594937</v>
+        <v>9458.9041095890407</v>
       </c>
       <c r="Q13">
-        <v>103636.92307692308</v>
+        <v>9723.38204592902</v>
       </c>
       <c r="R13">
-        <v>108131.41993957704</v>
+        <v>10121.98347107438</v>
       </c>
       <c r="S13">
-        <v>110263.00578034682</v>
+        <v>10420.627524075799</v>
       </c>
       <c r="T13">
-        <v>113702.51396648046</v>
+        <v>10836.311239193083</v>
       </c>
       <c r="U13">
-        <v>119056.4738292011</v>
+        <v>11120.945574491479</v>
       </c>
       <c r="V13">
-        <v>122796.83377308707</v>
+        <v>11518.731988472622</v>
       </c>
       <c r="W13">
-        <v>127460.95717884132</v>
+        <v>11921.713441654358</v>
       </c>
       <c r="X13">
-        <v>131121.83353437876</v>
+        <v>12583.292978208232</v>
       </c>
       <c r="Y13">
-        <v>138870.26406429391</v>
+        <v>13590.239188209713</v>
       </c>
       <c r="Z13">
-        <v>143863.83442265796</v>
+        <v>14253.758542141231</v>
       </c>
       <c r="AA13">
-        <v>145272.99703264094</v>
+        <v>14816.40299750208</v>
       </c>
       <c r="AB13">
-        <v>156906.49606299211</v>
+        <v>15647.211155378485</v>
       </c>
       <c r="AC13">
-        <v>173705.64915758176</v>
+        <v>17520.803734524052</v>
       </c>
       <c r="AD13">
-        <v>182337.74834437086</v>
+        <v>18793.409134708036</v>
       </c>
       <c r="AE13">
-        <v>188767.29559748428</v>
+        <v>20564.574314574314</v>
       </c>
       <c r="AF13">
-        <v>197573.33333333331</v>
+        <v>21822.671528007955</v>
       </c>
       <c r="AG13">
-        <v>210249.80422866094</v>
+        <v>23339.162448228253</v>
       </c>
       <c r="AH13">
-        <v>236382.26299694189</v>
+        <v>25274.678738317758</v>
       </c>
       <c r="AI13">
-        <v>262525.28301886795</v>
+        <v>27482.379161443099</v>
       </c>
       <c r="AJ13">
-        <v>302136.32718524459</v>
+        <v>29222.344071281699</v>
       </c>
       <c r="AK13">
-        <v>323292.56965944276</v>
+        <v>31613.719353155971</v>
       </c>
       <c r="AL13">
-        <v>331514.28571428574</v>
+        <v>33293.434463142919</v>
       </c>
       <c r="AM13">
-        <v>337284.47701532306</v>
+        <v>35148.333333333336</v>
       </c>
       <c r="AN13">
-        <v>342730.55028462998</v>
+        <v>37052.039529015979</v>
       </c>
       <c r="AO13">
-        <v>343305.92503022973</v>
+        <v>37795.812033031849</v>
       </c>
       <c r="AP13">
-        <v>359405.50029256876</v>
+        <v>39266.265617769546</v>
       </c>
       <c r="AQ13">
-        <v>375242.02733485191</v>
+        <v>41111.344170599543</v>
       </c>
       <c r="AR13">
-        <v>393412.65397536394</v>
+        <v>43364.117202585847</v>
       </c>
       <c r="AS13">
-        <v>416843.64261168381</v>
+        <v>44363.813394293458</v>
       </c>
       <c r="AT13">
-        <v>446992.52873563214</v>
+        <v>46920.420669095729</v>
       </c>
       <c r="AU13">
-        <v>460303.32020258863</v>
+        <v>47351.82412733433</v>
       </c>
       <c r="AV13">
-        <v>475445.6043956044</v>
+        <v>47644.793683896911</v>
       </c>
       <c r="AW13">
-        <v>498456.47442872688</v>
+        <v>48756.402071362703</v>
       </c>
       <c r="AX13">
-        <v>510977.18832891248</v>
+        <v>51402.908003804871</v>
       </c>
       <c r="AY13">
-        <v>532452.6152252719</v>
+        <v>53989.292812720392</v>
       </c>
       <c r="AZ13">
-        <v>526591.47248388699</v>
+        <v>60857.077205882357</v>
       </c>
       <c r="BA13">
-        <v>555839.36324167869</v>
+        <v>63001.808656604713</v>
       </c>
       <c r="BB13">
-        <v>586183.58633776091</v>
+        <v>66764.273330543438</v>
       </c>
       <c r="BC13">
-        <v>622275.65011820337</v>
+        <v>71096.319689056225</v>
       </c>
       <c r="BD13">
-        <v>643645.66556134541</v>
+        <v>74364.52773985354</v>
       </c>
       <c r="BE13">
-        <v>663892.95774647885</v>
+        <v>78503.426791277263</v>
       </c>
       <c r="BF13">
-        <v>684545.74861367838</v>
+        <v>81708.707252000982</v>
       </c>
       <c r="BG13">
-        <v>717888.18181818177</v>
+        <v>85510.189739985944</v>
       </c>
       <c r="BH13">
-        <v>748378.52348993288</v>
+        <v>88942.395005675367</v>
       </c>
       <c r="BI13">
-        <v>799387.76428250119</v>
+        <v>94039.773986261906</v>
       </c>
       <c r="BJ13">
-        <v>854676.84594348224</v>
+        <v>99296.692281991316</v>
       </c>
       <c r="BK13">
-        <v>905615.53398058249</v>
+        <v>100267.50717017209</v>
       </c>
       <c r="BL13">
-        <v>876049.13151364774</v>
+        <v>105051.97100936892</v>
       </c>
     </row>
     <row r="14" spans="1:64">
@@ -3174,193 +3159,193 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5129.3103448275861</v>
+        <v>3552.1048999309869</v>
       </c>
       <c r="C14">
-        <v>5475.9124087591244</v>
+        <v>3609.5617529880478</v>
       </c>
       <c r="D14">
-        <v>5828.4106891701831</v>
+        <v>3707.836990595611</v>
       </c>
       <c r="E14">
-        <v>6154.4401544401544</v>
+        <v>3901.4336917562723</v>
       </c>
       <c r="F14">
-        <v>6380.8948004836766</v>
+        <v>4083.1408775981527</v>
       </c>
       <c r="G14">
-        <v>6686.3425925925922</v>
+        <v>4267.5824175824173</v>
       </c>
       <c r="H14">
-        <v>7146.9907407407409</v>
+        <v>4215.5939298796447</v>
       </c>
       <c r="I14">
-        <v>7583.4254143646403</v>
+        <v>4650</v>
       </c>
       <c r="J14">
-        <v>7771.8940936863546</v>
+        <v>4682.094436652641</v>
       </c>
       <c r="K14">
-        <v>8324.8282630029444</v>
+        <v>4908.1225033288947</v>
       </c>
       <c r="L14">
-        <v>8815.1093439363813</v>
+        <v>5102.6503996634419</v>
       </c>
       <c r="M14">
-        <v>9552.253116011505</v>
+        <v>5407.7356970185328</v>
       </c>
       <c r="N14">
-        <v>9667.2828096118301</v>
+        <v>5496.5143299767615</v>
       </c>
       <c r="O14">
-        <v>10290.090090090089</v>
+        <v>5662.328002975084</v>
       </c>
       <c r="P14">
-        <v>10671.232876712329</v>
+        <v>5948.0242079031686</v>
       </c>
       <c r="Q14">
-        <v>11034.567901234568</v>
+        <v>6117.3660866598429</v>
       </c>
       <c r="R14">
-        <v>11569.086651053864</v>
+        <v>6487.5979112271543</v>
       </c>
       <c r="S14">
-        <v>11956.076134699855</v>
+        <v>6671.2877387553917</v>
       </c>
       <c r="T14">
-        <v>12637.16814159292</v>
+        <v>6979.9426934097428</v>
       </c>
       <c r="U14">
-        <v>13145.077720207255</v>
+        <v>7434.8411416262788</v>
       </c>
       <c r="V14">
-        <v>13468.385512584407</v>
+        <v>7857.8282828282827</v>
       </c>
       <c r="W14">
-        <v>14113.544668587898</v>
+        <v>8472.5848563968684</v>
       </c>
       <c r="X14">
-        <v>15158.488437676255</v>
+        <v>9188.3826879271055</v>
       </c>
       <c r="Y14">
-        <v>16291.922005571032</v>
+        <v>9591.0549967900715</v>
       </c>
       <c r="Z14">
-        <v>17030.176899063477</v>
+        <v>9982.987141444115</v>
       </c>
       <c r="AA14">
-        <v>17695.305164319248</v>
+        <v>10501.11648678824</v>
       </c>
       <c r="AB14">
-        <v>18555.307760927742</v>
+        <v>11187.158228964543</v>
       </c>
       <c r="AC14">
-        <v>20556.65024630542</v>
+        <v>12179.017485428811</v>
       </c>
       <c r="AD14">
-        <v>21922.388059701494</v>
+        <v>13194.670496250199</v>
       </c>
       <c r="AE14">
-        <v>24302.788844621515</v>
+        <v>14173.879680785758</v>
       </c>
       <c r="AF14">
-        <v>25432.49097472924</v>
+        <v>15082.369942196532</v>
       </c>
       <c r="AG14">
-        <v>27376.571806750497</v>
+        <v>16254.81298129813</v>
       </c>
       <c r="AH14">
-        <v>29826.01929660753</v>
+        <v>17568.771286350537</v>
       </c>
       <c r="AI14">
-        <v>32128.785651279039</v>
+        <v>19101.949025487258</v>
       </c>
       <c r="AJ14">
-        <v>34424.81417953116</v>
+        <v>20329.929112099002</v>
       </c>
       <c r="AK14">
-        <v>37398.747958628199</v>
+        <v>22015.438189204877</v>
       </c>
       <c r="AL14">
-        <v>39962.934947049922</v>
+        <v>23245.033112582783</v>
       </c>
       <c r="AM14">
-        <v>42585.111427216689</v>
+        <v>24421.77681473456</v>
       </c>
       <c r="AN14">
-        <v>45467.840216655379</v>
+        <v>25527.115644842303</v>
       </c>
       <c r="AO14">
-        <v>47103.962505325944</v>
+        <v>27571.527846718949</v>
       </c>
       <c r="AP14">
-        <v>50812.10063897763</v>
+        <v>28678.017692380861</v>
       </c>
       <c r="AQ14">
-        <v>53692.264150943396</v>
+        <v>30490.376795879642</v>
       </c>
       <c r="AR14">
-        <v>57224.300762804211</v>
+        <v>32529.061231539858</v>
       </c>
       <c r="AS14">
-        <v>58510.583941605837</v>
+        <v>34172.425194246985</v>
       </c>
       <c r="AT14">
-        <v>63351.021152443471</v>
+        <v>35906.445730595413</v>
       </c>
       <c r="AU14">
-        <v>65163.843822428236</v>
+        <v>36518.779702590837</v>
       </c>
       <c r="AV14">
-        <v>67362.321366329736</v>
+        <v>37364.858807709548</v>
       </c>
       <c r="AW14">
-        <v>69521.350210970471</v>
+        <v>38138.666472557867</v>
       </c>
       <c r="AX14">
-        <v>74387.424267234324</v>
+        <v>38835.243859024566</v>
       </c>
       <c r="AY14">
-        <v>79314.604973245194</v>
+        <v>39748.660869565218</v>
       </c>
       <c r="AZ14">
-        <v>89394.490979381444</v>
+        <v>40642.601230311637</v>
       </c>
       <c r="BA14">
-        <v>92669.312977099238</v>
+        <v>42224.257654917004</v>
       </c>
       <c r="BB14">
-        <v>95918.331885317122</v>
+        <v>43820.837642192346</v>
       </c>
       <c r="BC14">
-        <v>100289.80117293664</v>
+        <v>46136.792154381525</v>
       </c>
       <c r="BD14">
-        <v>105742.31504633035</v>
+        <v>48234.8845731037</v>
       </c>
       <c r="BE14">
-        <v>109634.12838633687</v>
+        <v>50439.144932714065</v>
       </c>
       <c r="BF14">
-        <v>116596.02076124567</v>
+        <v>52756.404285048906</v>
       </c>
       <c r="BG14">
-        <v>120844.07109136351</v>
+        <v>54388.033310517909</v>
       </c>
       <c r="BH14">
-        <v>125728.63588110404</v>
+        <v>56349.539349539351</v>
       </c>
       <c r="BI14">
-        <v>131694.25523711604</v>
+        <v>58090.570719602976</v>
       </c>
       <c r="BJ14">
-        <v>138303.58265241986</v>
+        <v>60571.413574090599</v>
       </c>
       <c r="BK14">
-        <v>135653.14428252593</v>
+        <v>62376.707034269515</v>
       </c>
       <c r="BL14">
-        <v>144121.79402867288</v>
+        <v>64435.958470498859</v>
       </c>
     </row>
     <row r="15" spans="1:64">
@@ -3368,1357 +3353,387 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5320.8661417322837</v>
+        <v>3308.4772370486653</v>
       </c>
       <c r="C15">
-        <v>5571.8623481781369</v>
+        <v>3416.8980563268547</v>
       </c>
       <c r="D15">
-        <v>6010.7317073170734</v>
+        <v>3471.5066354410619</v>
       </c>
       <c r="E15">
-        <v>6406.6726780883682</v>
+        <v>3605.4497946995148</v>
       </c>
       <c r="F15">
-        <v>6545.3759723422645</v>
+        <v>3733.3088774761554</v>
       </c>
       <c r="G15">
-        <v>6755.1695616211746</v>
+        <v>3808.4263593806263</v>
       </c>
       <c r="H15">
-        <v>6937.0277078085646</v>
+        <v>3946.8897781011278</v>
       </c>
       <c r="I15">
-        <v>7332.7987169206099</v>
+        <v>4071.2513293158459</v>
       </c>
       <c r="J15">
-        <v>7367.6248108925874</v>
+        <v>4115.6485929993141</v>
       </c>
       <c r="K15">
-        <v>7616.2876008804114</v>
+        <v>4325.8579680598032</v>
       </c>
       <c r="L15">
-        <v>7804.4609665427515</v>
+        <v>4466.2324305793618</v>
       </c>
       <c r="M15">
-        <v>8168.8857743517874</v>
+        <v>4725.5227348157978</v>
       </c>
       <c r="N15">
-        <v>8136.2416107382551</v>
+        <v>4730.9172546504169</v>
       </c>
       <c r="O15">
-        <v>8292.2673656618608</v>
+        <v>4887.3960332693541</v>
       </c>
       <c r="P15">
-        <v>8577.2104607721049</v>
+        <v>5071.0959329400803</v>
       </c>
       <c r="Q15">
-        <v>8763.1103074141047</v>
+        <v>5195.5475330926593</v>
       </c>
       <c r="R15">
-        <v>9059.0596330275239</v>
+        <v>5430.1821335646137</v>
       </c>
       <c r="S15">
-        <v>9288.7209929843502</v>
+        <v>5603.1613976705494</v>
       </c>
       <c r="T15">
-        <v>9514.2428785607208</v>
+        <v>5766.5256478053943</v>
       </c>
       <c r="U15">
-        <v>9628.4622731614145</v>
+        <v>5992.8297055057619</v>
       </c>
       <c r="V15">
-        <v>10067.184643510056</v>
+        <v>6346.666666666667</v>
       </c>
       <c r="W15">
-        <v>10287.494628276751</v>
+        <v>6547.174272877749</v>
       </c>
       <c r="X15">
-        <v>10646.16037335596</v>
+        <v>6899.445214979195</v>
       </c>
       <c r="Y15">
-        <v>11521.331058020478</v>
+        <v>7297.2911963882616</v>
       </c>
       <c r="Z15">
-        <v>12091.572123176662</v>
+        <v>7621.4161598609899</v>
       </c>
       <c r="AA15">
-        <v>12523.186237845923</v>
+        <v>8004.5146726862304</v>
       </c>
       <c r="AB15">
-        <v>13300.215982721384</v>
+        <v>8292.7756653992401</v>
       </c>
       <c r="AC15">
-        <v>15004.454342984409</v>
+        <v>9150.6226526981627</v>
       </c>
       <c r="AD15">
-        <v>16213.431786216595</v>
+        <v>9947.5974271660998</v>
       </c>
       <c r="AE15">
-        <v>17471.984179301253</v>
+        <v>10788.137130419009</v>
       </c>
       <c r="AF15">
-        <v>18759.191176470587</v>
+        <v>11552.582870604072</v>
       </c>
       <c r="AG15">
-        <v>19850.157277666571</v>
+        <v>12465.268886043534</v>
       </c>
       <c r="AH15">
-        <v>21251.719394773041</v>
+        <v>12874.747788297376</v>
       </c>
       <c r="AI15">
-        <v>23299.629433562732</v>
+        <v>14020.063357972544</v>
       </c>
       <c r="AJ15">
-        <v>24429.54964445615</v>
+        <v>14797.781065088759</v>
       </c>
       <c r="AK15">
-        <v>26292.188282423635</v>
+        <v>15865.195729537367</v>
       </c>
       <c r="AL15">
-        <v>27378.577817531306</v>
+        <v>16132.229197275276</v>
       </c>
       <c r="AM15">
-        <v>28588.665830196573</v>
+        <v>16886.927602967509</v>
       </c>
       <c r="AN15">
-        <v>29712.851800826607</v>
+        <v>17851.158755731813</v>
       </c>
       <c r="AO15">
-        <v>29819.824753559693</v>
+        <v>18195.652173913044</v>
       </c>
       <c r="AP15">
-        <v>29291.875107814387</v>
+        <v>19490.130439801454</v>
       </c>
       <c r="AQ15">
-        <v>30255.128622598502</v>
+        <v>20542.49022892239</v>
       </c>
       <c r="AR15">
-        <v>31449.33645589383</v>
+        <v>21817.118495846084</v>
       </c>
       <c r="AS15">
-        <v>32118.622650450165</v>
+        <v>22672.134757238797</v>
       </c>
       <c r="AT15">
-        <v>33251.516990291268</v>
+        <v>23535.303600214938</v>
       </c>
       <c r="AU15">
-        <v>33244.563682575543</v>
+        <v>23929.637305699482</v>
       </c>
       <c r="AV15">
-        <v>32928.459937565036</v>
+        <v>24176.012771901816</v>
       </c>
       <c r="AW15">
-        <v>33701.052373959858</v>
+        <v>24486.862293824321</v>
       </c>
       <c r="AX15">
-        <v>35102.078736499825</v>
+        <v>25446.227031060535</v>
       </c>
       <c r="AY15">
-        <v>36579.681921454074</v>
+        <v>27402.573697179887</v>
       </c>
       <c r="AZ15">
-        <v>41224.955673758865</v>
+        <v>28547.968347114787</v>
       </c>
       <c r="BA15">
-        <v>42512.33656684943</v>
+        <v>30781.136324268144</v>
       </c>
       <c r="BB15">
-        <v>46263.516953467064</v>
+        <v>32252.281947261665</v>
       </c>
       <c r="BC15">
-        <v>49556.306068601589</v>
+        <v>32467.961487383796</v>
       </c>
       <c r="BD15">
-        <v>51461.943102522811</v>
+        <v>33786.671049387791</v>
       </c>
       <c r="BE15">
-        <v>55664.830416936704</v>
+        <v>34650.22276225192</v>
       </c>
       <c r="BF15">
-        <v>56386.56341565508</v>
+        <v>36213.625957211654</v>
       </c>
       <c r="BG15">
-        <v>59737.998784687057</v>
+        <v>37531.353900873735</v>
       </c>
       <c r="BH15">
-        <v>61451.209837366121</v>
+        <v>38754.064886939428</v>
       </c>
       <c r="BI15">
-        <v>65513.87401421478</v>
+        <v>40592.724046140196</v>
       </c>
       <c r="BJ15">
-        <v>68276.017194841537</v>
+        <v>39555.105646764336</v>
       </c>
       <c r="BK15">
-        <v>70710.275249479106</v>
+        <v>39260.6947815534</v>
       </c>
       <c r="BL15">
-        <v>73343.189581554223</v>
+        <v>42087.308799030747</v>
       </c>
     </row>
     <row r="16" spans="1:64">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="B16">
-        <v>2302.3809523809523</v>
+        <v>2328.5586392121754</v>
       </c>
       <c r="C16">
-        <v>2373.2718894009217</v>
+        <v>2383.3827893175076</v>
       </c>
       <c r="D16">
-        <v>2448.4304932735427</v>
+        <v>2403.0769230769229</v>
       </c>
       <c r="E16">
-        <v>2575.5555555555552</v>
+        <v>2544.7310647639956</v>
       </c>
       <c r="F16">
-        <v>2625.8205689277897</v>
+        <v>2684.2400448681997</v>
       </c>
       <c r="G16">
-        <v>2699.788583509514</v>
+        <v>2814.8045467147217</v>
       </c>
       <c r="H16">
-        <v>2804.0816326530612</v>
+        <v>2946.7422096317277</v>
       </c>
       <c r="I16">
-        <v>2868.7258687258686</v>
+        <v>2950.3234152652003</v>
       </c>
       <c r="J16">
-        <v>3071.9557195571956</v>
+        <v>3035.0232672054858</v>
       </c>
       <c r="K16">
-        <v>3189.2361111111113</v>
+        <v>3197.9090688062242</v>
       </c>
       <c r="L16">
-        <v>3279.3388429752067</v>
+        <v>3229.5508274231679</v>
       </c>
       <c r="M16">
-        <v>3500.8103727714752</v>
+        <v>3331.9568708419361</v>
       </c>
       <c r="N16">
-        <v>3669.7674418604652</v>
+        <v>3503.6003600360036</v>
       </c>
       <c r="O16">
-        <v>3838.1924198250726</v>
+        <v>3527.6752767527678</v>
       </c>
       <c r="P16">
-        <v>4042.3497267759567</v>
+        <v>3661.7273497036413</v>
       </c>
       <c r="Q16">
-        <v>4223.5294117647063</v>
+        <v>3793.6642027455123</v>
       </c>
       <c r="R16">
-        <v>4540.506329113924</v>
+        <v>3978.4768211920532</v>
       </c>
       <c r="S16">
-        <v>4769.7756788665884</v>
+        <v>4148.1863149216815</v>
       </c>
       <c r="T16">
-        <v>5095.6618464961066</v>
+        <v>4427.3850516508001</v>
       </c>
       <c r="U16">
-        <v>5330.4994686503724</v>
+        <v>4692.0275192229865</v>
       </c>
       <c r="V16">
-        <v>5735.7723577235765</v>
+        <v>4969.9459026247241</v>
       </c>
       <c r="W16">
-        <v>6471.4566929133862</v>
+        <v>5395.3535353535353</v>
       </c>
       <c r="X16">
-        <v>7095.8254269449717</v>
+        <v>5683.9198036006546</v>
       </c>
       <c r="Y16">
-        <v>7815.3988868274582</v>
+        <v>6123.5051546391751</v>
       </c>
       <c r="Z16">
-        <v>8665.7608695652161</v>
+        <v>6512.0246659815002</v>
       </c>
       <c r="AA16">
-        <v>9219.0812720848062</v>
+        <v>7071.8698517298189</v>
       </c>
       <c r="AB16">
-        <v>9470.8904109589057</v>
+        <v>7850.8604206500959</v>
       </c>
       <c r="AC16">
-        <v>9998.3402489626551</v>
+        <v>8353.8461538461543</v>
       </c>
       <c r="AD16">
-        <v>10332.506203473946</v>
+        <v>9163.5834545832458</v>
       </c>
       <c r="AE16">
-        <v>10808.652246256239</v>
+        <v>9639.2712550607284</v>
       </c>
       <c r="AF16">
-        <v>11351.71862509992</v>
+        <v>10933.201581027668</v>
       </c>
       <c r="AG16">
-        <v>12070</v>
+        <v>12097.483020375548</v>
       </c>
       <c r="AH16">
-        <v>13404.255319148935</v>
+        <v>14060.717948717949</v>
       </c>
       <c r="AI16">
-        <v>14242.066420664207</v>
+        <v>15524.422644594319</v>
       </c>
       <c r="AJ16">
-        <v>14749.116607773851</v>
+        <v>15798.466814605608</v>
       </c>
       <c r="AK16">
-        <v>16305.270362765228</v>
+        <v>17430.809399477806</v>
       </c>
       <c r="AL16">
-        <v>17169.712793733681</v>
+        <v>18815.126050420167</v>
       </c>
       <c r="AM16">
-        <v>18107.7806122449</v>
+        <v>20134.747706422018</v>
       </c>
       <c r="AN16">
-        <v>18877.423389618511</v>
+        <v>21821.124361158432</v>
       </c>
       <c r="AO16">
-        <v>19902.089552238805</v>
+        <v>22250.505421797465</v>
       </c>
       <c r="AP16">
-        <v>20530.871321407965</v>
+        <v>23971.711711711712</v>
       </c>
       <c r="AQ16">
-        <v>21676.190476190477</v>
+        <v>25563.536886692553</v>
       </c>
       <c r="AR16">
-        <v>22652.556349642662</v>
+        <v>26773.834377174669</v>
       </c>
       <c r="AS16">
-        <v>24320.663811563169</v>
+        <v>27170.995293707514</v>
       </c>
       <c r="AT16">
-        <v>24975.995914198164</v>
+        <v>28473.45890410959</v>
       </c>
       <c r="AU16">
-        <v>25638.076351016363</v>
+        <v>30122.655854029395</v>
       </c>
       <c r="AV16">
-        <v>26741.329479768789</v>
+        <v>32415.944246132924</v>
       </c>
       <c r="AW16">
-        <v>27689.557855127001</v>
+        <v>33256.129887342613</v>
       </c>
       <c r="AX16">
-        <v>28871.652816251153</v>
+        <v>34642.552493438321</v>
       </c>
       <c r="AY16">
-        <v>29902.057245080501</v>
+        <v>36066.247582205033</v>
       </c>
       <c r="AZ16">
-        <v>31587.445887445887</v>
+        <v>37397.197685044172</v>
       </c>
       <c r="BA16">
-        <v>33230.865746549563</v>
+        <v>38945.787655804175</v>
       </c>
       <c r="BB16">
-        <v>34645.682001614201</v>
+        <v>41246.359583952457</v>
       </c>
       <c r="BC16">
-        <v>34550.837553564474</v>
+        <v>39728.270676691725</v>
       </c>
       <c r="BD16">
-        <v>36721.768202080231</v>
+        <v>41359.361393323663</v>
       </c>
       <c r="BE16">
-        <v>38651.603498542274</v>
+        <v>41678.499278499279</v>
       </c>
       <c r="BF16">
-        <v>40872.445384073289</v>
+        <v>43070.160366552118</v>
       </c>
       <c r="BG16">
-        <v>41920.823160097665</v>
+        <v>45218.402426693632</v>
       </c>
       <c r="BH16">
-        <v>43946.902654867255</v>
+        <v>47603.73295046662</v>
       </c>
       <c r="BI16">
-        <v>45731.674958540629</v>
+        <v>48621.499292786422</v>
       </c>
       <c r="BJ16">
-        <v>47632.784769280413</v>
+        <v>48287.022685641823</v>
       </c>
       <c r="BK16">
-        <v>49821.996185632546</v>
+        <v>49440.156680690554</v>
       </c>
       <c r="BL16">
-        <v>50794.456555590157</v>
-      </c>
-    </row>
-    <row r="17" spans="1:64">
-      <c r="A17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>4062.1963070942666</v>
-      </c>
-      <c r="C17">
-        <v>4110.0746268656712</v>
-      </c>
-      <c r="D17">
-        <v>4196.6927763272415</v>
-      </c>
-      <c r="E17">
-        <v>4388.8888888888896</v>
-      </c>
-      <c r="F17">
-        <v>4605.4901960784309</v>
-      </c>
-      <c r="G17">
-        <v>4818.1143281366003</v>
-      </c>
-      <c r="H17">
-        <v>4702.3223082336381</v>
-      </c>
-      <c r="I17">
-        <v>5264.3142476697731</v>
-      </c>
-      <c r="J17">
-        <v>5228.5535378835311</v>
-      </c>
-      <c r="K17">
-        <v>5498.5092426952888</v>
-      </c>
-      <c r="L17">
-        <v>5725.1693002257334</v>
-      </c>
-      <c r="M17">
-        <v>6038.6058981233246</v>
-      </c>
-      <c r="N17">
-        <v>6104.8012390294271</v>
-      </c>
-      <c r="O17">
-        <v>6287.0693959061409</v>
-      </c>
-      <c r="P17">
-        <v>6619.6437168993743</v>
-      </c>
-      <c r="Q17">
-        <v>6786.2419205909518</v>
-      </c>
-      <c r="R17">
-        <v>7164.0281442392261</v>
-      </c>
-      <c r="S17">
-        <v>7342.6427678199243</v>
-      </c>
-      <c r="T17">
-        <v>7633.7321497491312</v>
-      </c>
-      <c r="U17">
-        <v>8148.9361702127653</v>
-      </c>
-      <c r="V17">
-        <v>8559.4758064516118</v>
-      </c>
-      <c r="W17">
-        <v>9108.5392555520793</v>
-      </c>
-      <c r="X17">
-        <v>9849.520383693045</v>
-      </c>
-      <c r="Y17">
-        <v>10123.504867872045</v>
-      </c>
-      <c r="Z17">
-        <v>10351.050366995696</v>
-      </c>
-      <c r="AA17">
-        <v>10843.234323432343</v>
-      </c>
-      <c r="AB17">
-        <v>11632.526105309931</v>
-      </c>
-      <c r="AC17">
-        <v>12726.458333333334</v>
-      </c>
-      <c r="AD17">
-        <v>13878.80585211546</v>
-      </c>
-      <c r="AE17">
-        <v>14935.077154685736</v>
-      </c>
-      <c r="AF17">
-        <v>15905.627094725702</v>
-      </c>
-      <c r="AG17">
-        <v>17165.773610180844</v>
-      </c>
-      <c r="AH17">
-        <v>18436.213991769549</v>
-      </c>
-      <c r="AI17">
-        <v>20092.344713490751</v>
-      </c>
-      <c r="AJ17">
-        <v>21473.074696004634</v>
-      </c>
-      <c r="AK17">
-        <v>23181.576740285156</v>
-      </c>
-      <c r="AL17">
-        <v>24506.710044733631</v>
-      </c>
-      <c r="AM17">
-        <v>25713.912816496995</v>
-      </c>
-      <c r="AN17">
-        <v>26854.895104895102</v>
-      </c>
-      <c r="AO17">
-        <v>29101.214574898786</v>
-      </c>
-      <c r="AP17">
-        <v>30286.10478359909</v>
-      </c>
-      <c r="AQ17">
-        <v>32185.412626589099</v>
-      </c>
-      <c r="AR17">
-        <v>34369.774590163935</v>
-      </c>
-      <c r="AS17">
-        <v>35971.358748778104</v>
-      </c>
-      <c r="AT17">
-        <v>37915.063350539654</v>
-      </c>
-      <c r="AU17">
-        <v>38508.658989935626</v>
-      </c>
-      <c r="AV17">
-        <v>39314.854111405839</v>
-      </c>
-      <c r="AW17">
-        <v>40051.756803306926</v>
-      </c>
-      <c r="AX17">
-        <v>40651.990908325613</v>
-      </c>
-      <c r="AY17">
-        <v>41562.402174808471</v>
-      </c>
-      <c r="AZ17">
-        <v>42318.272851077469</v>
-      </c>
-      <c r="BA17">
-        <v>43913.432835820902</v>
-      </c>
-      <c r="BB17">
-        <v>45570.571032784363</v>
-      </c>
-      <c r="BC17">
-        <v>48383.44160749358</v>
-      </c>
-      <c r="BD17">
-        <v>50500.146177459435</v>
-      </c>
-      <c r="BE17">
-        <v>52741.281138790036</v>
-      </c>
-      <c r="BF17">
-        <v>55108.662295996655</v>
-      </c>
-      <c r="BG17">
-        <v>56825.366518922609</v>
-      </c>
-      <c r="BH17">
-        <v>58765.915119363395</v>
-      </c>
-      <c r="BI17">
-        <v>60491.013335051211</v>
-      </c>
-      <c r="BJ17">
-        <v>63085.005015045135</v>
-      </c>
-      <c r="BK17">
-        <v>64805.95362568424</v>
-      </c>
-      <c r="BL17">
-        <v>67085.218337970247</v>
-      </c>
-    </row>
-    <row r="18" spans="1:64">
-      <c r="A18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <v>4505.4945054945056</v>
-      </c>
-      <c r="C18">
-        <v>4652.6610644257707</v>
-      </c>
-      <c r="D18">
-        <v>4793.7853107344636</v>
-      </c>
-      <c r="E18">
-        <v>5223.7960339943347</v>
-      </c>
-      <c r="F18">
-        <v>5598.8538681948421</v>
-      </c>
-      <c r="G18">
-        <v>5949.1525423728817</v>
-      </c>
-      <c r="H18">
-        <v>6136.7521367521367</v>
-      </c>
-      <c r="I18">
-        <v>6356.3535911602203</v>
-      </c>
-      <c r="J18">
-        <v>6615.5913978494618</v>
-      </c>
-      <c r="K18">
-        <v>6909.090909090909</v>
-      </c>
-      <c r="L18">
-        <v>7273.2095490716183</v>
-      </c>
-      <c r="M18">
-        <v>7793.367346938775</v>
-      </c>
-      <c r="N18">
-        <v>8031.476997578693</v>
-      </c>
-      <c r="O18">
-        <v>8311.3207547169804</v>
-      </c>
-      <c r="P18">
-        <v>8394.5578231292529</v>
-      </c>
-      <c r="Q18">
-        <v>8655.0218340611355</v>
-      </c>
-      <c r="R18">
-        <v>9095.3389830508477</v>
-      </c>
-      <c r="S18">
-        <v>9387.9668049792526</v>
-      </c>
-      <c r="T18">
-        <v>9647.1774193548372</v>
-      </c>
-      <c r="U18">
-        <v>9638.9961389961391</v>
-      </c>
-      <c r="V18">
-        <v>10226.415094339623</v>
-      </c>
-      <c r="W18">
-        <v>10245.901639344263</v>
-      </c>
-      <c r="X18">
-        <v>10850.799289520426</v>
-      </c>
-      <c r="Y18">
-        <v>11195.876288659792</v>
-      </c>
-      <c r="Z18">
-        <v>11063.694267515924</v>
-      </c>
-      <c r="AA18">
-        <v>11810.930576070899</v>
-      </c>
-      <c r="AB18">
-        <v>12387.323943661971</v>
-      </c>
-      <c r="AC18">
-        <v>13326.923076923076</v>
-      </c>
-      <c r="AD18">
-        <v>14220.492866407263</v>
-      </c>
-      <c r="AE18">
-        <v>16125.770653514181</v>
-      </c>
-      <c r="AF18">
-        <v>17065.268065268065</v>
-      </c>
-      <c r="AG18">
-        <v>18354.189944134079</v>
-      </c>
-      <c r="AH18">
-        <v>19053.763440860217</v>
-      </c>
-      <c r="AI18">
-        <v>21058.885383806519</v>
-      </c>
-      <c r="AJ18">
-        <v>21665.301944728759</v>
-      </c>
-      <c r="AK18">
-        <v>23383.149448345033</v>
-      </c>
-      <c r="AL18">
-        <v>24420.689655172413</v>
-      </c>
-      <c r="AM18">
-        <v>26896.887159533071</v>
-      </c>
-      <c r="AN18">
-        <v>28126.999059266229</v>
-      </c>
-      <c r="AO18">
-        <v>29821.591948764868</v>
-      </c>
-      <c r="AP18">
-        <v>31228.926353149956</v>
-      </c>
-      <c r="AQ18">
-        <v>34044.019933554817</v>
-      </c>
-      <c r="AR18">
-        <v>37643.196202531646</v>
-      </c>
-      <c r="AS18">
-        <v>38846.456692913387</v>
-      </c>
-      <c r="AT18">
-        <v>43367.000771010025</v>
-      </c>
-      <c r="AU18">
-        <v>42836.041358936483</v>
-      </c>
-      <c r="AV18">
-        <v>42580.463808854533</v>
-      </c>
-      <c r="AW18">
-        <v>44274.193548387098</v>
-      </c>
-      <c r="AX18">
-        <v>45966.233766233767</v>
-      </c>
-      <c r="AY18">
-        <v>49944.862155388473</v>
-      </c>
-      <c r="AZ18">
-        <v>49387.234042553187</v>
-      </c>
-      <c r="BA18">
-        <v>53258.196721311477</v>
-      </c>
-      <c r="BB18">
-        <v>55003.348214285717</v>
-      </c>
-      <c r="BC18">
-        <v>52154.015401540157</v>
-      </c>
-      <c r="BD18">
-        <v>55692.475463467832</v>
-      </c>
-      <c r="BE18">
-        <v>57369.92969172525</v>
-      </c>
-      <c r="BF18">
-        <v>60703.703703703701</v>
-      </c>
-      <c r="BG18">
-        <v>62030.793319415454</v>
-      </c>
-      <c r="BH18">
-        <v>66120.08281573499</v>
-      </c>
-      <c r="BI18">
-        <v>68995.977878330814</v>
-      </c>
-      <c r="BJ18">
-        <v>66019.950124688272</v>
-      </c>
-      <c r="BK18">
-        <v>66364.982133741709</v>
-      </c>
-      <c r="BL18">
-        <v>71559.670781893001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:64">
-      <c r="A19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19">
-        <v>3108.9743589743589</v>
-      </c>
-      <c r="C19">
-        <v>3213.0314232902033</v>
-      </c>
-      <c r="D19">
-        <v>3259.5108695652175</v>
-      </c>
-      <c r="E19">
-        <v>3359.8452278589853</v>
-      </c>
-      <c r="F19">
-        <v>3459.4026083298277</v>
-      </c>
-      <c r="G19">
-        <v>3495.6665290961619</v>
-      </c>
-      <c r="H19">
-        <v>3626.3552960800671</v>
-      </c>
-      <c r="I19">
-        <v>3734.8515656771046</v>
-      </c>
-      <c r="J19">
-        <v>3749.8033044846579</v>
-      </c>
-      <c r="K19">
-        <v>3949.7859089139743</v>
-      </c>
-      <c r="L19">
-        <v>4049.6062992125985</v>
-      </c>
-      <c r="M19">
-        <v>4266.6921022510496</v>
-      </c>
-      <c r="N19">
-        <v>4226.9870609981517</v>
-      </c>
-      <c r="O19">
-        <v>4350.1110288675054</v>
-      </c>
-      <c r="P19">
-        <v>4543.8848920863311</v>
-      </c>
-      <c r="Q19">
-        <v>4642.7076064200983</v>
-      </c>
-      <c r="R19">
-        <v>4851.0210913960491</v>
-      </c>
-      <c r="S19">
-        <v>5019.2061459667093</v>
-      </c>
-      <c r="T19">
-        <v>5180.7668898356669</v>
-      </c>
-      <c r="U19">
-        <v>5435.1933864777084</v>
-      </c>
-      <c r="V19">
-        <v>5762.5</v>
-      </c>
-      <c r="W19">
-        <v>5995.380434782609</v>
-      </c>
-      <c r="X19">
-        <v>6308.2646824342273</v>
-      </c>
-      <c r="Y19">
-        <v>6707.6403326403324</v>
-      </c>
-      <c r="Z19">
-        <v>7077.7162977867201</v>
-      </c>
-      <c r="AA19">
-        <v>7390.3717826501434</v>
-      </c>
-      <c r="AB19">
-        <v>7614.6489386517378</v>
-      </c>
-      <c r="AC19">
-        <v>8448.6261833294866</v>
-      </c>
-      <c r="AD19">
-        <v>9217.9401993355477</v>
-      </c>
-      <c r="AE19">
-        <v>9867.503190131858</v>
-      </c>
-      <c r="AF19">
-        <v>10622.418879056047</v>
-      </c>
-      <c r="AG19">
-        <v>11480.665047636838</v>
-      </c>
-      <c r="AH19">
-        <v>11832.396154543807</v>
-      </c>
-      <c r="AI19">
-        <v>12841.141246917929</v>
-      </c>
-      <c r="AJ19">
-        <v>13637.558360712432</v>
-      </c>
-      <c r="AK19">
-        <v>14621.76509621765</v>
-      </c>
-      <c r="AL19">
-        <v>14832.354758961681</v>
-      </c>
-      <c r="AM19">
-        <v>15371.428571428572</v>
-      </c>
-      <c r="AN19">
-        <v>16292.035398230088</v>
-      </c>
-      <c r="AO19">
-        <v>16449.924440170355</v>
-      </c>
-      <c r="AP19">
-        <v>17734.607218683654</v>
-      </c>
-      <c r="AQ19">
-        <v>18445.232873177654</v>
-      </c>
-      <c r="AR19">
-        <v>19279.807204464738</v>
-      </c>
-      <c r="AS19">
-        <v>20043.005247664147</v>
-      </c>
-      <c r="AT19">
-        <v>20323.301698301697</v>
-      </c>
-      <c r="AU19">
-        <v>20843.90067502411</v>
-      </c>
-      <c r="AV19">
-        <v>21130.363995813466</v>
-      </c>
-      <c r="AW19">
-        <v>21193.400447427295</v>
-      </c>
-      <c r="AX19">
-        <v>22004.247903278512</v>
-      </c>
-      <c r="AY19">
-        <v>23559.235124452516</v>
-      </c>
-      <c r="AZ19">
-        <v>24977.817121433036</v>
-      </c>
-      <c r="BA19">
-        <v>26878.8371620248</v>
-      </c>
-      <c r="BB19">
-        <v>28191.533864541831</v>
-      </c>
-      <c r="BC19">
-        <v>28969.501466275658</v>
-      </c>
-      <c r="BD19">
-        <v>29899.371069182391</v>
-      </c>
-      <c r="BE19">
-        <v>30647.865853658535</v>
-      </c>
-      <c r="BF19">
-        <v>31918.71578361325</v>
-      </c>
-      <c r="BG19">
-        <v>33270.581828083872</v>
-      </c>
-      <c r="BH19">
-        <v>34071.472854485874</v>
-      </c>
-      <c r="BI19">
-        <v>35695.101863892502</v>
-      </c>
-      <c r="BJ19">
-        <v>34972.10226291242</v>
-      </c>
-      <c r="BK19">
-        <v>34530.423162583516</v>
-      </c>
-      <c r="BL19">
-        <v>36999.911205824901</v>
-      </c>
-    </row>
-    <row r="20" spans="1:64">
-      <c r="A20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20">
-        <v>2328.5586392121754</v>
-      </c>
-      <c r="C20">
-        <v>2383.3827893175076</v>
-      </c>
-      <c r="D20">
-        <v>2403.0769230769229</v>
-      </c>
-      <c r="E20">
-        <v>2544.7310647639956</v>
-      </c>
-      <c r="F20">
-        <v>2684.2400448681997</v>
-      </c>
-      <c r="G20">
-        <v>2814.8045467147217</v>
-      </c>
-      <c r="H20">
-        <v>2946.7422096317277</v>
-      </c>
-      <c r="I20">
-        <v>2950.3234152652003</v>
-      </c>
-      <c r="J20">
-        <v>3035.0232672054858</v>
-      </c>
-      <c r="K20">
-        <v>3197.9090688062242</v>
-      </c>
-      <c r="L20">
-        <v>3229.5508274231679</v>
-      </c>
-      <c r="M20">
-        <v>3331.9568708419361</v>
-      </c>
-      <c r="N20">
-        <v>3503.6003600360036</v>
-      </c>
-      <c r="O20">
-        <v>3527.6752767527678</v>
-      </c>
-      <c r="P20">
-        <v>3661.7273497036413</v>
-      </c>
-      <c r="Q20">
-        <v>3793.6642027455123</v>
-      </c>
-      <c r="R20">
-        <v>3978.4768211920532</v>
-      </c>
-      <c r="S20">
-        <v>4148.1863149216815</v>
-      </c>
-      <c r="T20">
-        <v>4427.3850516508001</v>
-      </c>
-      <c r="U20">
-        <v>4692.0275192229865</v>
-      </c>
-      <c r="V20">
-        <v>4969.9459026247241</v>
-      </c>
-      <c r="W20">
-        <v>5395.3535353535353</v>
-      </c>
-      <c r="X20">
-        <v>5683.9198036006546</v>
-      </c>
-      <c r="Y20">
-        <v>6123.5051546391751</v>
-      </c>
-      <c r="Z20">
-        <v>6512.0246659815002</v>
-      </c>
-      <c r="AA20">
-        <v>7071.8698517298189</v>
-      </c>
-      <c r="AB20">
-        <v>7850.8604206500959</v>
-      </c>
-      <c r="AC20">
-        <v>8353.8461538461543</v>
-      </c>
-      <c r="AD20">
-        <v>9163.5834545832458</v>
-      </c>
-      <c r="AE20">
-        <v>9639.2712550607284</v>
-      </c>
-      <c r="AF20">
-        <v>10933.201581027668</v>
-      </c>
-      <c r="AG20">
-        <v>12097.483020375548</v>
-      </c>
-      <c r="AH20">
-        <v>14060.717948717949</v>
-      </c>
-      <c r="AI20">
-        <v>15524.422644594319</v>
-      </c>
-      <c r="AJ20">
-        <v>15798.466814605608</v>
-      </c>
-      <c r="AK20">
-        <v>17430.809399477806</v>
-      </c>
-      <c r="AL20">
-        <v>18815.126050420167</v>
-      </c>
-      <c r="AM20">
-        <v>20134.747706422018</v>
-      </c>
-      <c r="AN20">
-        <v>21821.124361158432</v>
-      </c>
-      <c r="AO20">
-        <v>22250.505421797465</v>
-      </c>
-      <c r="AP20">
-        <v>23971.711711711712</v>
-      </c>
-      <c r="AQ20">
-        <v>25563.536886692553</v>
-      </c>
-      <c r="AR20">
-        <v>26773.834377174669</v>
-      </c>
-      <c r="AS20">
-        <v>27170.995293707514</v>
-      </c>
-      <c r="AT20">
-        <v>28473.45890410959</v>
-      </c>
-      <c r="AU20">
-        <v>30122.655854029395</v>
-      </c>
-      <c r="AV20">
-        <v>32415.944246132924</v>
-      </c>
-      <c r="AW20">
-        <v>33256.129887342613</v>
-      </c>
-      <c r="AX20">
-        <v>34642.552493438321</v>
-      </c>
-      <c r="AY20">
-        <v>36066.247582205033</v>
-      </c>
-      <c r="AZ20">
-        <v>37397.197685044172</v>
-      </c>
-      <c r="BA20">
-        <v>38945.787655804175</v>
-      </c>
-      <c r="BB20">
-        <v>41246.359583952457</v>
-      </c>
-      <c r="BC20">
-        <v>39728.270676691725</v>
-      </c>
-      <c r="BD20">
-        <v>41359.361393323663</v>
-      </c>
-      <c r="BE20">
-        <v>41678.499278499279</v>
-      </c>
-      <c r="BF20">
-        <v>43070.160366552118</v>
-      </c>
-      <c r="BG20">
-        <v>45218.402426693632</v>
-      </c>
-      <c r="BH20">
-        <v>47603.73295046662</v>
-      </c>
-      <c r="BI20">
-        <v>48621.499292786422</v>
-      </c>
-      <c r="BJ20">
-        <v>48287.022685641823</v>
-      </c>
-      <c r="BK20">
-        <v>49440.156680690554</v>
-      </c>
-      <c r="BL20">
         <v>52909.090909090904</v>
-      </c>
-    </row>
-    <row r="21" spans="1:64">
-      <c r="A21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21">
-        <v>3794.6541677223208</v>
-      </c>
-      <c r="C21">
-        <v>3674.1427900422732</v>
-      </c>
-      <c r="D21">
-        <v>3586.9120654396725</v>
-      </c>
-      <c r="E21">
-        <v>3753.7169337709979</v>
-      </c>
-      <c r="F21">
-        <v>4004.5036930282831</v>
-      </c>
-      <c r="G21">
-        <v>4183.5835655848241</v>
-      </c>
-      <c r="H21">
-        <v>4340.6514306280369</v>
-      </c>
-      <c r="I21">
-        <v>4550.8853514576995</v>
-      </c>
-      <c r="J21">
-        <v>4757.4908007709828</v>
-      </c>
-      <c r="K21">
-        <v>4958.0664446152532</v>
-      </c>
-      <c r="L21">
-        <v>5253.4025178632182</v>
-      </c>
-      <c r="M21">
-        <v>5458.8777219430485</v>
-      </c>
-      <c r="N21">
-        <v>5647.5763747454175</v>
-      </c>
-      <c r="O21">
-        <v>5821.6434452184931</v>
-      </c>
-      <c r="P21">
-        <v>6063.1927339901476</v>
-      </c>
-      <c r="Q21">
-        <v>6381.9732769683706</v>
-      </c>
-      <c r="R21">
-        <v>6630.4173061463134</v>
-      </c>
-      <c r="S21">
-        <v>6864.0453418349271</v>
-      </c>
-      <c r="T21">
-        <v>7010.6382978723404</v>
-      </c>
-      <c r="U21">
-        <v>7314.1196116024494</v>
-      </c>
-      <c r="V21">
-        <v>7894.6010797840436</v>
-      </c>
-      <c r="W21">
-        <v>8459.6057664018826</v>
-      </c>
-      <c r="X21">
-        <v>9274.0801499882837</v>
-      </c>
-      <c r="Y21">
-        <v>10108.366580614878</v>
-      </c>
-      <c r="Z21">
-        <v>10993.132190655084</v>
-      </c>
-      <c r="AA21">
-        <v>11694.973101174293</v>
-      </c>
-      <c r="AB21">
-        <v>12614.212047373492</v>
-      </c>
-      <c r="AC21">
-        <v>13712.166666666666</v>
-      </c>
-      <c r="AD21">
-        <v>14949.54714674668</v>
-      </c>
-      <c r="AE21">
-        <v>16039.572898893721</v>
-      </c>
-      <c r="AF21">
-        <v>17161.150767899631</v>
-      </c>
-      <c r="AG21">
-        <v>18272.299227594962</v>
-      </c>
-      <c r="AH21">
-        <v>19889.794012348884</v>
-      </c>
-      <c r="AI21">
-        <v>22206.444537288491</v>
-      </c>
-      <c r="AJ21">
-        <v>24116.664055564263</v>
-      </c>
-      <c r="AK21">
-        <v>25711.50636344669</v>
-      </c>
-      <c r="AL21">
-        <v>27688.799670578548</v>
-      </c>
-      <c r="AM21">
-        <v>29445.567062389495</v>
-      </c>
-      <c r="AN21">
-        <v>30721.913733267229</v>
-      </c>
-      <c r="AO21">
-        <v>32040.973236009733</v>
-      </c>
-      <c r="AP21">
-        <v>33729.407825504641</v>
-      </c>
-      <c r="AQ21">
-        <v>35351.907536177408</v>
-      </c>
-      <c r="AR21">
-        <v>36961.628386741853</v>
-      </c>
-      <c r="AS21">
-        <v>39318.210950375389</v>
-      </c>
-      <c r="AT21">
-        <v>41121.169216716145</v>
-      </c>
-      <c r="AU21">
-        <v>42484.03575989783</v>
-      </c>
-      <c r="AV21">
-        <v>43867.933103072166</v>
-      </c>
-      <c r="AW21">
-        <v>45055.626019206378</v>
-      </c>
-      <c r="AX21">
-        <v>46486.292990167203</v>
-      </c>
-      <c r="AY21">
-        <v>48046.220009053868</v>
-      </c>
-      <c r="AZ21">
-        <v>49237.254726279003</v>
-      </c>
-      <c r="BA21">
-        <v>51033.52350625801</v>
-      </c>
-      <c r="BB21">
-        <v>52628.085216939471</v>
-      </c>
-      <c r="BC21">
-        <v>54441.243010201899</v>
-      </c>
-      <c r="BD21">
-        <v>56611.992133562075</v>
-      </c>
-      <c r="BE21">
-        <v>59797.608632254305</v>
-      </c>
-      <c r="BF21">
-        <v>62686.956883289677</v>
-      </c>
-      <c r="BG21">
-        <v>65704.271450470231</v>
-      </c>
-      <c r="BH21">
-        <v>68634.23868312758</v>
-      </c>
-      <c r="BI21">
-        <v>71788.741586783595</v>
-      </c>
-      <c r="BJ21">
-        <v>74566.568820620043</v>
-      </c>
-      <c r="BK21">
-        <v>76914.190758388722</v>
-      </c>
-      <c r="BL21">
-        <v>78847.632780581596</v>
       </c>
     </row>
   </sheetData>
